--- a/clmm_anova_output.xlsx
+++ b/clmm_anova_output.xlsx
@@ -439,10 +439,10 @@
         </is>
       </c>
       <c r="F2">
-        <v>3.747231190755235</v>
+        <v>3.756184098895562</v>
       </c>
       <c r="G2">
-        <v>4.337605815110472</v>
+        <v>4.328652906970146</v>
       </c>
       <c r="H2">
         <v>3.785607196401799</v>
@@ -451,7 +451,7 @@
         <v>2.240957051864529</v>
       </c>
       <c r="J2">
-        <v>0.02502885711779187</v>
+        <v>0.1001154284711675</v>
       </c>
     </row>
     <row r="3">
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="F3">
-        <v>3.686991035513799</v>
+        <v>3.696000702590503</v>
       </c>
       <c r="G3">
-        <v>4.281108470050614</v>
+        <v>4.272098802973911</v>
       </c>
       <c r="H3">
         <v>3.785607196401799</v>
@@ -489,7 +489,7 @@
         <v>1.720717562157774</v>
       </c>
       <c r="J3">
-        <v>0.08530208793852596</v>
+        <v>0.3412083517541039</v>
       </c>
     </row>
     <row r="4">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="F4">
-        <v>3.991761783531235</v>
+        <v>3.99985055815305</v>
       </c>
       <c r="G4">
-        <v>4.525153526638493</v>
+        <v>4.517064752016679</v>
       </c>
       <c r="H4">
         <v>3.785607196401799</v>
@@ -527,7 +527,7 @@
         <v>4.566932590958604</v>
       </c>
       <c r="J4">
-        <v>4.94913077597273e-06</v>
+        <v>1.979652310389092e-05</v>
       </c>
     </row>
     <row r="5">
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="F5">
-        <v>3.083591755446736</v>
+        <v>3.091554807753674</v>
       </c>
       <c r="G5">
-        <v>3.608693090202287</v>
+        <v>3.600730037895349</v>
       </c>
       <c r="H5">
         <v>3.785607196401799</v>
@@ -565,7 +565,7 @@
         <v>-4.311496340738993</v>
       </c>
       <c r="J5">
-        <v>1.621534584913701e-05</v>
+        <v>6.486138339654804e-05</v>
       </c>
     </row>
     <row r="6">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="F6">
-        <v>4.027384920557794</v>
+        <v>4.035251685317415</v>
       </c>
       <c r="G6">
-        <v>4.546136840834119</v>
+        <v>4.538270076074498</v>
       </c>
       <c r="H6">
         <v>3.785607196401799</v>
@@ -603,7 +603,7 @@
         <v>4.976892788748686</v>
       </c>
       <c r="J6">
-        <v>6.461308555738922e-07</v>
+        <v>2.584523422295569e-06</v>
       </c>
     </row>
     <row r="7">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="F7">
-        <v>3.909569252517666</v>
+        <v>3.917961151922993</v>
       </c>
       <c r="G7">
-        <v>4.462949716316974</v>
+        <v>4.454557816911648</v>
       </c>
       <c r="H7">
         <v>3.785607196401799</v>
@@ -641,7 +641,7 @@
         <v>3.729845816814264</v>
       </c>
       <c r="J7">
-        <v>0.0001915969776900502</v>
+        <v>0.000766387910760201</v>
       </c>
     </row>
     <row r="8">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F8">
-        <v>4.079606076636096</v>
+        <v>4.0874440003642</v>
       </c>
       <c r="G8">
-        <v>4.596456155311809</v>
+        <v>4.588618231583705</v>
       </c>
       <c r="H8">
         <v>3.785607196401799</v>
@@ -679,7 +679,7 @@
         <v>5.506237799793762</v>
       </c>
       <c r="J8">
-        <v>3.665832786608894e-08</v>
+        <v>1.466333114643557e-07</v>
       </c>
     </row>
     <row r="9">
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="F9">
-        <v>3.386782902739057</v>
+        <v>3.394480036406553</v>
       </c>
       <c r="G9">
-        <v>3.894348972482497</v>
+        <v>3.886651838815002</v>
       </c>
       <c r="H9">
         <v>3.785607196401799</v>
@@ -717,7 +717,7 @@
         <v>-1.472129627602486</v>
       </c>
       <c r="J9">
-        <v>0.140985876213538</v>
+        <v>0.5639435048541521</v>
       </c>
     </row>
     <row r="10">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="F10">
-        <v>3.056941996867153</v>
+        <v>3.066635737237614</v>
       </c>
       <c r="G10">
-        <v>3.696168741976926</v>
+        <v>3.686475001606466</v>
       </c>
       <c r="H10">
         <v>3.785607196401799</v>
@@ -755,7 +755,7 @@
         <v>-3.296632034455122</v>
       </c>
       <c r="J10">
-        <v>0.0009785160879866221</v>
+        <v>0.003914064351946489</v>
       </c>
     </row>
     <row r="11">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="F11">
-        <v>3.580290261257981</v>
+        <v>3.589240556413479</v>
       </c>
       <c r="G11">
-        <v>4.17049257959679</v>
+        <v>4.161542284441293</v>
       </c>
       <c r="H11">
         <v>3.785607196401799</v>
@@ -793,7 +793,7 @@
         <v>0.7836934151408895</v>
       </c>
       <c r="J11">
-        <v>0.4332200272644134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="F12">
-        <v>3.863302329088807</v>
+        <v>3.871810068068348</v>
       </c>
       <c r="G12">
-        <v>4.424321511396144</v>
+        <v>4.415813772416603</v>
       </c>
       <c r="H12">
         <v>3.785607196401799</v>
@@ -831,7 +831,7 @@
         <v>3.289278703604106</v>
       </c>
       <c r="J12">
-        <v>0.001004445086078794</v>
+        <v>0.004017780344315175</v>
       </c>
     </row>
     <row r="13">
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="F13">
-        <v>3.843790013723792</v>
+        <v>3.850895947912273</v>
       </c>
       <c r="G13">
-        <v>4.312371078274316</v>
+        <v>4.305265144085835</v>
       </c>
       <c r="H13">
         <v>3.785607196401799</v>
@@ -869,7 +869,7 @@
         <v>3.215500929907856</v>
       </c>
       <c r="J13">
-        <v>0.00130217072935406</v>
+        <v>0.005208682917416241</v>
       </c>
     </row>
     <row r="14">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="F14">
-        <v>3.11128355767926</v>
+        <v>3.120813066207248</v>
       </c>
       <c r="G14">
-        <v>3.739680490756226</v>
+        <v>3.730150982228238</v>
       </c>
       <c r="H14">
         <v>3.785607196401799</v>
@@ -907,7 +907,7 @@
         <v>-2.952340861738958</v>
       </c>
       <c r="J14">
-        <v>0.003153745833208797</v>
+        <v>0.01261498333283519</v>
       </c>
     </row>
     <row r="15">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="F15">
-        <v>3.940218969807197</v>
+        <v>3.94838763433239</v>
       </c>
       <c r="G15">
-        <v>4.478878830374989</v>
+        <v>4.470710165849797</v>
       </c>
       <c r="H15">
         <v>3.785607196401799</v>
@@ -945,7 +945,7 @@
         <v>4.054512107912654</v>
       </c>
       <c r="J15">
-        <v>5.023904843418884e-05</v>
+        <v>0.0002009561937367554</v>
       </c>
     </row>
     <row r="16">
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="F16">
-        <v>4.333116245069397</v>
+        <v>4.339686189117801</v>
       </c>
       <c r="G16">
-        <v>4.766352930715759</v>
+        <v>4.759782986667355</v>
       </c>
       <c r="H16">
         <v>3.785607196401799</v>
@@ -983,7 +983,7 @@
         <v>9.086311440638084</v>
       </c>
       <c r="J16">
-        <v>1.024559625464375e-19</v>
+        <v>4.0982385018575e-19</v>
       </c>
     </row>
     <row r="17">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="F17">
-        <v>3.943898735532032</v>
+        <v>3.950795717443398</v>
       </c>
       <c r="G17">
-        <v>4.398701023379387</v>
+        <v>4.391804041468021</v>
       </c>
       <c r="H17">
         <v>3.785607196401799</v>
@@ -1021,7 +1021,7 @@
         <v>4.368836928578074</v>
       </c>
       <c r="J17">
-        <v>1.249099913483756e-05</v>
+        <v>4.996399653935024e-05</v>
       </c>
     </row>
     <row r="18">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="F18">
-        <v>2.763568469236368</v>
+        <v>2.773257930086259</v>
       </c>
       <c r="G18">
-        <v>3.402513013265891</v>
+        <v>3.392823552416</v>
       </c>
       <c r="H18">
         <v>3.785607196401799</v>
@@ -1059,7 +1059,7 @@
         <v>-5.664627015843022</v>
       </c>
       <c r="J18">
-        <v>1.473446847309961e-08</v>
+        <v>5.893787389239843e-08</v>
       </c>
     </row>
     <row r="19">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="F19">
-        <v>3.223747850797908</v>
+        <v>3.233380509977028</v>
       </c>
       <c r="G19">
-        <v>3.858946766645056</v>
+        <v>3.849314107465937</v>
       </c>
       <c r="H19">
         <v>3.785607196401799</v>
@@ -1097,7 +1097,7 @@
         <v>-1.981022828193633</v>
       </c>
       <c r="J19">
-        <v>0.04758871360093851</v>
+        <v>0.190354854403754</v>
       </c>
     </row>
     <row r="20">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="F20">
-        <v>3.499829405882427</v>
+        <v>3.509366934232518</v>
       </c>
       <c r="G20">
-        <v>4.128755183820451</v>
+        <v>4.119217655470361</v>
       </c>
       <c r="H20">
         <v>3.785607196401799</v>
@@ -1135,7 +1135,7 @@
         <v>0.2349654593711044</v>
       </c>
       <c r="J20">
-        <v>0.8142355421894732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="F21">
-        <v>3.927077582564348</v>
+        <v>3.934053336904467</v>
       </c>
       <c r="G21">
-        <v>4.387074299116408</v>
+        <v>4.380098544776288</v>
       </c>
       <c r="H21">
         <v>3.785607196401799</v>
@@ -1173,7 +1173,7 @@
         <v>4.160203944278014</v>
       </c>
       <c r="J21">
-        <v>3.179635383117614e-05</v>
+        <v>0.0001271854153247046</v>
       </c>
     </row>
     <row r="22">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="F22">
-        <v>2.29965947524401</v>
+        <v>2.309246286162272</v>
       </c>
       <c r="G22">
-        <v>2.931835055058068</v>
+        <v>2.922248244139807</v>
       </c>
       <c r="H22">
         <v>3.785607196401799</v>
@@ -1211,7 +1211,7 @@
         <v>-9.533299254772645</v>
       </c>
       <c r="J22">
-        <v>1.523624077802141e-21</v>
+        <v>6.094496311208564e-21</v>
       </c>
     </row>
     <row r="23">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="F23">
-        <v>2.549484783111099</v>
+        <v>2.559276568589146</v>
       </c>
       <c r="G23">
-        <v>3.195176840123287</v>
+        <v>3.185385054645241</v>
       </c>
       <c r="H23">
         <v>3.785607196401799</v>
@@ -1249,7 +1249,7 @@
         <v>-7.286582043622641</v>
       </c>
       <c r="J23">
-        <v>3.17917221436333e-13</v>
+        <v>1.271668885745332e-12</v>
       </c>
     </row>
     <row r="24">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="F24">
-        <v>2.889321383018927</v>
+        <v>2.899777012359105</v>
       </c>
       <c r="G24">
-        <v>3.578788777004706</v>
+        <v>3.568333147664528</v>
       </c>
       <c r="H24">
         <v>3.785607196401799</v>
@@ -1287,7 +1287,7 @@
         <v>-4.121164006375145</v>
       </c>
       <c r="J24">
-        <v>3.769629404515896e-05</v>
+        <v>0.0001507851761806358</v>
       </c>
     </row>
     <row r="25">
@@ -1313,10 +1313,10 @@
         </is>
       </c>
       <c r="F25">
-        <v>4.198940714902536</v>
+        <v>4.205107835010714</v>
       </c>
       <c r="G25">
-        <v>4.605614296285514</v>
+        <v>4.599447176177336</v>
       </c>
       <c r="H25">
         <v>3.785607196401799</v>
@@ -1325,7 +1325,7 @@
         <v>7.811854645900932</v>
       </c>
       <c r="J25">
-        <v>5.63525281332026e-15</v>
+        <v>2.254101125328104e-14</v>
       </c>
     </row>
   </sheetData>
@@ -1411,16 +1411,16 @@
         </is>
       </c>
       <c r="F2">
-        <v>-0.3652542528021165</v>
+        <v>-0.3006214834484711</v>
       </c>
       <c r="G2">
-        <v>0.4819917531034097</v>
+        <v>0.4173589837497643</v>
       </c>
       <c r="H2">
         <v>0.4289581309352617</v>
       </c>
       <c r="I2">
-        <v>0.9735268949830804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="F3">
-        <v>-0.6202192693610956</v>
+        <v>-0.5585529289810452</v>
       </c>
       <c r="G3">
-        <v>0.1881409650570747</v>
+        <v>0.1264746246770243</v>
       </c>
       <c r="H3">
         <v>-1.664069894640442</v>
       </c>
       <c r="I3">
-        <v>0.3428578401972102</v>
+        <v>0.5765907748488153</v>
       </c>
     </row>
     <row r="4">
@@ -1481,16 +1481,16 @@
         </is>
       </c>
       <c r="F4">
-        <v>0.317300035171635</v>
+        <v>0.3751209540835437</v>
       </c>
       <c r="G4">
-        <v>1.07525212504505</v>
+        <v>1.017431206133141</v>
       </c>
       <c r="H4">
         <v>5.7198384326952</v>
       </c>
       <c r="I4">
-        <v>6.388483519970123e-08</v>
+        <v>6.397523634005789e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1516,16 +1516,16 @@
         </is>
       </c>
       <c r="F5">
-        <v>-0.6790818293922786</v>
+        <v>-0.617340147730261</v>
       </c>
       <c r="G5">
-        <v>0.1302660247869645</v>
+        <v>0.06852434312494693</v>
       </c>
       <c r="H5">
         <v>-2.111083614335464</v>
       </c>
       <c r="I5">
-        <v>0.1494970197241011</v>
+        <v>0.2085907534407458</v>
       </c>
     </row>
     <row r="6">
@@ -1551,16 +1551,16 @@
         </is>
       </c>
       <c r="F6">
-        <v>0.2590513325648039</v>
+        <v>0.3168539356507145</v>
       </c>
       <c r="G6">
-        <v>1.016763327350588</v>
+        <v>0.9589607242646774</v>
       </c>
       <c r="H6">
         <v>5.242005482290045</v>
       </c>
       <c r="I6">
-        <v>9.495868733555568e-07</v>
+        <v>9.5304389862751e-07</v>
       </c>
     </row>
     <row r="7">
@@ -1586,16 +1586,16 @@
         </is>
       </c>
       <c r="F7">
-        <v>0.5534794848416312</v>
+        <v>0.6082275696649271</v>
       </c>
       <c r="G7">
-        <v>1.271150979679075</v>
+        <v>1.216402894855779</v>
       </c>
       <c r="H7">
         <v>7.915225092235334</v>
       </c>
       <c r="I7">
-        <v>7.138734048339757e-14</v>
+        <v>1.480836963080357e-14</v>
       </c>
     </row>
     <row r="8">
@@ -1621,16 +1621,16 @@
         </is>
       </c>
       <c r="F8">
-        <v>-0.2834012564182078</v>
+        <v>-0.2248286778918842</v>
       </c>
       <c r="G8">
-        <v>0.4844040489754797</v>
+        <v>0.4258314704491561</v>
       </c>
       <c r="H8">
         <v>0.8150139220996342</v>
       </c>
       <c r="I8">
-        <v>0.8474138921626604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1656,16 +1656,16 @@
         </is>
       </c>
       <c r="F9">
-        <v>-0.4238747256481121</v>
+        <v>-0.3670259239580168</v>
       </c>
       <c r="G9">
-        <v>0.3213342550921208</v>
+        <v>0.2644854534020254</v>
       </c>
       <c r="H9">
         <v>-0.4283820560778862</v>
       </c>
       <c r="I9">
-        <v>0.9736285975223777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1691,16 +1691,16 @@
         </is>
       </c>
       <c r="F10">
-        <v>0.3005860062717142</v>
+        <v>0.3533160576237984</v>
       </c>
       <c r="G10">
-        <v>0.9918038798986449</v>
+        <v>0.9390738285465607</v>
       </c>
       <c r="H10">
         <v>5.820933475599309</v>
       </c>
       <c r="I10">
-        <v>3.507165902139064e-08</v>
+        <v>3.511191609467059e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1726,16 +1726,16 @@
         </is>
       </c>
       <c r="F11">
-        <v>-0.5377062246508262</v>
+        <v>-0.478823630062752</v>
       </c>
       <c r="G11">
-        <v>0.2341629615375628</v>
+        <v>0.1752803669494887</v>
       </c>
       <c r="H11">
         <v>-1.224308711430252</v>
       </c>
       <c r="I11">
-        <v>0.6113392481420528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1761,16 +1761,16 @@
         </is>
       </c>
       <c r="F12">
-        <v>0.1872626643213578</v>
+        <v>0.2419489783208641</v>
       </c>
       <c r="G12">
-        <v>0.9041244292917294</v>
+        <v>0.849438115292223</v>
       </c>
       <c r="H12">
         <v>4.739771894948518</v>
       </c>
       <c r="I12">
-        <v>1.272162220034012e-05</v>
+        <v>1.283753700767729e-05</v>
       </c>
     </row>
     <row r="13">
@@ -1796,16 +1796,16 @@
         </is>
       </c>
       <c r="F13">
-        <v>0.3490651075324175</v>
+        <v>0.4022210062060997</v>
       </c>
       <c r="G13">
-        <v>1.045865249193933</v>
+        <v>0.9927093505202507</v>
       </c>
       <c r="H13">
         <v>6.232443358219589</v>
       </c>
       <c r="I13">
-        <v>2.754012573547016e-09</v>
+        <v>2.7552936240872e-09</v>
       </c>
     </row>
     <row r="14">
@@ -1831,16 +1831,16 @@
         </is>
       </c>
       <c r="F14">
-        <v>-0.9322036420969697</v>
+        <v>-0.8660841269499295</v>
       </c>
       <c r="G14">
-        <v>-0.06546845991372185</v>
+        <v>-0.131587975060762</v>
       </c>
       <c r="H14">
         <v>-3.583566330340312</v>
       </c>
       <c r="I14">
-        <v>0.001923416357976881</v>
+        <v>0.002033607856933159</v>
       </c>
     </row>
     <row r="15">
@@ -1866,16 +1866,16 @@
         </is>
       </c>
       <c r="F15">
-        <v>-1.195553616127643</v>
+        <v>-1.130207718374469</v>
       </c>
       <c r="G15">
-        <v>-0.3389594855132286</v>
+        <v>-0.404305383266403</v>
       </c>
       <c r="H15">
         <v>-5.57711438005872</v>
       </c>
       <c r="I15">
-        <v>1.464477631385463e-07</v>
+        <v>1.467246525686818e-07</v>
       </c>
     </row>
     <row r="16">
@@ -1901,16 +1901,16 @@
         </is>
       </c>
       <c r="F16">
-        <v>-1.083807722836715</v>
+        <v>-1.025482326273954</v>
       </c>
       <c r="G16">
-        <v>-0.3192426303173136</v>
+        <v>-0.3775680268800745</v>
       </c>
       <c r="H16">
         <v>-5.713113297122123</v>
       </c>
       <c r="I16">
-        <v>6.646130890075597e-08</v>
+        <v>6.655666321446066e-08</v>
       </c>
     </row>
     <row r="17">
@@ -1936,16 +1936,16 @@
         </is>
       </c>
       <c r="F17">
-        <v>-0.6763724163915358</v>
+        <v>-0.6141306071704178</v>
       </c>
       <c r="G17">
-        <v>0.1395314167613558</v>
+        <v>0.07728960754023778</v>
       </c>
       <c r="H17">
         <v>-2.048428208839038</v>
       </c>
       <c r="I17">
-        <v>0.1703874629286661</v>
+        <v>0.2431083591115574</v>
       </c>
     </row>
     <row r="18">
@@ -1971,16 +1971,16 @@
         </is>
       </c>
       <c r="F18">
-        <v>-0.5625916426647193</v>
+        <v>-0.5076807992616631</v>
       </c>
       <c r="G18">
-        <v>0.1572133915213821</v>
+        <v>0.1023025481183259</v>
       </c>
       <c r="H18">
         <v>-1.753313634186728</v>
       </c>
       <c r="I18">
-        <v>0.2961665478286098</v>
+        <v>0.4772891188064923</v>
       </c>
     </row>
     <row r="19">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="F19">
-        <v>-0.2861651253195194</v>
+        <v>-0.2324757714976665</v>
       </c>
       <c r="G19">
-        <v>0.4176278738063622</v>
+        <v>0.3639385199845093</v>
       </c>
       <c r="H19">
         <v>0.5815295799246</v>
       </c>
       <c r="I19">
-        <v>0.9376702546888074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2041,16 +2041,16 @@
         </is>
       </c>
       <c r="F20">
-        <v>-1.199495702677765</v>
+        <v>-1.136113130535668</v>
       </c>
       <c r="G20">
-        <v>-0.3686380490689348</v>
+        <v>-0.4320206212110318</v>
       </c>
       <c r="H20">
         <v>-5.875847593235227</v>
       </c>
       <c r="I20">
-        <v>2.52153197211058e-08</v>
+        <v>2.524111421510032e-08</v>
       </c>
     </row>
     <row r="21">
@@ -2076,16 +2076,16 @@
         </is>
       </c>
       <c r="F21">
-        <v>-1.519184317183574</v>
+        <v>-1.458929012922376</v>
       </c>
       <c r="G21">
-        <v>-0.729320810166096</v>
+        <v>-0.7895761144272939</v>
       </c>
       <c r="H21">
         <v>-8.862492446088385</v>
       </c>
       <c r="I21">
-        <v>2.930988785010413e-14</v>
+        <v>4.694706926642921e-18</v>
       </c>
     </row>
     <row r="22">
@@ -2111,16 +2111,16 @@
         </is>
       </c>
       <c r="F22">
-        <v>-1.120455049423959</v>
+        <v>-1.063296115196254</v>
       </c>
       <c r="G22">
-        <v>-0.3711806610519747</v>
+        <v>-0.4283395952796803</v>
       </c>
       <c r="H22">
         <v>-6.197776759671436</v>
       </c>
       <c r="I22">
-        <v>3.43424355619959e-09</v>
+        <v>3.435977104766681e-09</v>
       </c>
     </row>
     <row r="23">
@@ -2146,16 +2146,16 @@
         </is>
       </c>
       <c r="F23">
-        <v>-0.6960148770875361</v>
+        <v>-0.6417255071522014</v>
       </c>
       <c r="G23">
-        <v>0.01564350148456556</v>
+        <v>-0.03864586845076917</v>
       </c>
       <c r="H23">
         <v>-2.976380920793398</v>
       </c>
       <c r="I23">
-        <v>0.01545565378274216</v>
+        <v>0.01750033973981877</v>
       </c>
     </row>
     <row r="24">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="F24">
-        <v>-0.3013124749309156</v>
+        <v>-0.2495050903664786</v>
       </c>
       <c r="G24">
-        <v>0.377810516201681</v>
+        <v>0.3260031316372439</v>
       </c>
       <c r="H24">
         <v>0.3506839799554</v>
       </c>
       <c r="I24">
-        <v>0.9852047015112146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2216,16 +2216,16 @@
         </is>
       </c>
       <c r="F25">
-        <v>0.06956744035072177</v>
+        <v>0.1166917625899663</v>
       </c>
       <c r="G25">
-        <v>0.6873019765230142</v>
+        <v>0.6401776542837696</v>
       </c>
       <c r="H25">
         <v>3.8144604770117</v>
       </c>
       <c r="I25">
-        <v>0.0007867767638026768</v>
+        <v>0.0008188846585265349</v>
       </c>
     </row>
     <row r="26">
@@ -2251,16 +2251,16 @@
         </is>
       </c>
       <c r="F26">
-        <v>-0.9086108419042266</v>
+        <v>-0.8399072726797514</v>
       </c>
       <c r="G26">
-        <v>-0.008002293036479258</v>
+        <v>-0.07670586226095438</v>
       </c>
       <c r="H26">
         <v>-3.16857547327468</v>
       </c>
       <c r="I26">
-        <v>0.008338268058363796</v>
+        <v>0.009191278196041715</v>
       </c>
     </row>
     <row r="27">
@@ -2286,16 +2286,16 @@
         </is>
       </c>
       <c r="F27">
-        <v>-1.182967817793635</v>
+        <v>-1.114048819265708</v>
       </c>
       <c r="G27">
-        <v>-0.279535289406984</v>
+        <v>-0.3484542879349112</v>
       </c>
       <c r="H27">
         <v>-5.039821083031252</v>
       </c>
       <c r="I27">
-        <v>2.781020644104792e-06</v>
+        <v>2.795803546576355e-06</v>
       </c>
     </row>
     <row r="28">
@@ -2321,16 +2321,16 @@
         </is>
       </c>
       <c r="F28">
-        <v>-1.456511603725781</v>
+        <v>-1.398156629988614</v>
       </c>
       <c r="G28">
-        <v>-0.691558795452716</v>
+        <v>-0.7499137691898827</v>
       </c>
       <c r="H28">
         <v>-8.742344416396639</v>
       </c>
       <c r="I28">
-        <v>3.219646771412954e-14</v>
+        <v>1.369933116789502e-17</v>
       </c>
     </row>
     <row r="29">
@@ -2356,16 +2356,16 @@
         </is>
       </c>
       <c r="F29">
-        <v>-0.7237859795009012</v>
+        <v>-0.6550005222981397</v>
       </c>
       <c r="G29">
-        <v>0.1778960072409876</v>
+        <v>0.1091105500382261</v>
       </c>
       <c r="H29">
         <v>-1.884802147191966</v>
       </c>
       <c r="I29">
-        <v>0.2345262712941697</v>
+        <v>0.3567393298481494</v>
       </c>
     </row>
     <row r="30">
@@ -2391,16 +2391,16 @@
         </is>
       </c>
       <c r="F30">
-        <v>-0.9970991364235383</v>
+        <v>-0.938912891410413</v>
       </c>
       <c r="G30">
-        <v>-0.2343581278142531</v>
+        <v>-0.2925443728273785</v>
       </c>
       <c r="H30">
         <v>-5.026391278265464</v>
       </c>
       <c r="I30">
-        <v>2.98252323482906e-06</v>
+        <v>2.998773728750869e-06</v>
       </c>
     </row>
     <row r="31">
@@ -2426,16 +2426,16 @@
         </is>
       </c>
       <c r="F31">
-        <v>-0.724169632055216</v>
+        <v>-0.6659810249675056</v>
       </c>
       <c r="G31">
-        <v>0.03860234007733804</v>
+        <v>-0.0195862670103723</v>
       </c>
       <c r="H31">
         <v>-2.798139793451639</v>
       </c>
       <c r="I31">
-        <v>0.02642575151119531</v>
+        <v>0.03083871731957219</v>
       </c>
     </row>
     <row r="32">
@@ -2461,16 +2461,16 @@
         </is>
       </c>
       <c r="F32">
-        <v>-0.71292901519792</v>
+        <v>-0.6433037322918114</v>
       </c>
       <c r="G32">
-        <v>0.1997619222656113</v>
+        <v>0.1301366393595027</v>
       </c>
       <c r="H32">
         <v>-1.750447565268728</v>
       </c>
       <c r="I32">
-        <v>0.2976072095181344</v>
+        <v>0.4802466870247024</v>
       </c>
     </row>
     <row r="33">
@@ -2496,16 +2496,16 @@
         </is>
       </c>
       <c r="F33">
-        <v>-1.096319969803742</v>
+        <v>-1.023388969496111</v>
       </c>
       <c r="G33">
-        <v>-0.1402956599178118</v>
+        <v>-0.2132266602254432</v>
       </c>
       <c r="H33">
         <v>-4.026983410947531</v>
       </c>
       <c r="I33">
-        <v>0.0003292622215608221</v>
+        <v>0.0003389821014824455</v>
       </c>
     </row>
     <row r="34">
@@ -2531,16 +2531,16 @@
         </is>
       </c>
       <c r="F34">
-        <v>-2.163491973024307</v>
+        <v>-2.105978380638495</v>
       </c>
       <c r="G34">
-        <v>-1.409568507861663</v>
+        <v>-1.467082100247476</v>
       </c>
       <c r="H34">
         <v>-14.75459020750665</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1.72459169199709e-48</v>
       </c>
     </row>
     <row r="35">
@@ -2566,16 +2566,16 @@
         </is>
       </c>
       <c r="F35">
-        <v>-0.8426994663314307</v>
+        <v>-0.7693163903030025</v>
       </c>
       <c r="G35">
-        <v>0.1192509295421854</v>
+        <v>0.04586785351375727</v>
       </c>
       <c r="H35">
         <v>-2.341364395408224</v>
       </c>
       <c r="I35">
-        <v>0.08884184367339776</v>
+        <v>0.1152804253084544</v>
       </c>
     </row>
     <row r="36">
@@ -2601,16 +2601,16 @@
         </is>
       </c>
       <c r="F36">
-        <v>-1.912064283340396</v>
+        <v>-1.853764054487951</v>
       </c>
       <c r="G36">
-        <v>-1.147829104613266</v>
+        <v>-1.206129333465711</v>
       </c>
       <c r="H36">
         <v>-12.46502962980416</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>6.949723606785953e-35</v>
       </c>
     </row>
     <row r="37">
@@ -2636,16 +2636,16 @@
         </is>
       </c>
       <c r="F37">
-        <v>-1.57546506551663</v>
+        <v>-1.51333147165042</v>
       </c>
       <c r="G37">
-        <v>-0.7609797856477867</v>
+        <v>-0.8231133795139963</v>
       </c>
       <c r="H37">
         <v>-8.930717251386477</v>
       </c>
       <c r="I37">
-        <v>2.753353101070388e-14</v>
+        <v>2.539533611194485e-18</v>
       </c>
     </row>
   </sheetData>
@@ -2736,10 +2736,10 @@
         </is>
       </c>
       <c r="F2">
-        <v>3.747231190755235</v>
+        <v>3.740077011469241</v>
       </c>
       <c r="G2">
-        <v>4.337605815110472</v>
+        <v>4.344759994396467</v>
       </c>
       <c r="H2">
         <v>3.785607196401799</v>
@@ -2748,7 +2748,7 @@
         <v>2.240957051864529</v>
       </c>
       <c r="J2">
-        <v>0.02502885711779187</v>
+        <v>0.1501731427067512</v>
       </c>
     </row>
     <row r="3">
@@ -2774,10 +2774,10 @@
         </is>
       </c>
       <c r="F3">
-        <v>4.027384920557794</v>
+        <v>4.0210986675762</v>
       </c>
       <c r="G3">
-        <v>4.546136840834119</v>
+        <v>4.552423093815713</v>
       </c>
       <c r="H3">
         <v>3.785607196401799</v>
@@ -2786,7 +2786,7 @@
         <v>4.976892788748686</v>
       </c>
       <c r="J3">
-        <v>6.461308555738922e-07</v>
+        <v>3.876785133443353e-06</v>
       </c>
     </row>
     <row r="4">
@@ -2812,10 +2812,10 @@
         </is>
       </c>
       <c r="F4">
-        <v>3.056941996867153</v>
+        <v>3.049195825960989</v>
       </c>
       <c r="G4">
-        <v>3.696168741976926</v>
+        <v>3.70391491288309</v>
       </c>
       <c r="H4">
         <v>3.785607196401799</v>
@@ -2824,7 +2824,7 @@
         <v>-3.296632034455122</v>
       </c>
       <c r="J4">
-        <v>0.0009785160879866221</v>
+        <v>0.005871096527919733</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="F5">
-        <v>3.11128355767926</v>
+        <v>3.103668622794632</v>
       </c>
       <c r="G5">
-        <v>3.739680490756226</v>
+        <v>3.747295425640854</v>
       </c>
       <c r="H5">
         <v>3.785607196401799</v>
@@ -2862,7 +2862,7 @@
         <v>-2.952340861738958</v>
       </c>
       <c r="J5">
-        <v>0.003153745833208797</v>
+        <v>0.01892247499925279</v>
       </c>
     </row>
     <row r="6">
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="F6">
-        <v>2.763568469236368</v>
+        <v>2.755825718052257</v>
       </c>
       <c r="G6">
-        <v>3.402513013265891</v>
+        <v>3.410255764450001</v>
       </c>
       <c r="H6">
         <v>3.785607196401799</v>
@@ -2900,7 +2900,7 @@
         <v>-5.664627015843022</v>
       </c>
       <c r="J6">
-        <v>1.473446847309961e-08</v>
+        <v>8.840681083859765e-08</v>
       </c>
     </row>
     <row r="7">
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="F7">
-        <v>2.29965947524401</v>
+        <v>2.291998750592851</v>
       </c>
       <c r="G7">
-        <v>2.931835055058068</v>
+        <v>2.939495779709227</v>
       </c>
       <c r="H7">
         <v>3.785607196401799</v>
@@ -2938,7 +2938,7 @@
         <v>-9.533299254772645</v>
       </c>
       <c r="J7">
-        <v>1.523624077802141e-21</v>
+        <v>9.141744466812846e-21</v>
       </c>
     </row>
     <row r="8">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="F8">
-        <v>3.686991035513799</v>
+        <v>3.679791500729842</v>
       </c>
       <c r="G8">
-        <v>4.281108470050614</v>
+        <v>4.288308004834573</v>
       </c>
       <c r="H8">
         <v>3.785607196401799</v>
@@ -2976,7 +2976,7 @@
         <v>1.720717562157774</v>
       </c>
       <c r="J8">
-        <v>0.08530208793852596</v>
+        <v>0.5118125276311558</v>
       </c>
     </row>
     <row r="9">
@@ -3002,10 +3002,10 @@
         </is>
       </c>
       <c r="F9">
-        <v>3.909569252517666</v>
+        <v>3.902863369696719</v>
       </c>
       <c r="G9">
-        <v>4.462949716316974</v>
+        <v>4.469655599137922</v>
       </c>
       <c r="H9">
         <v>3.785607196401799</v>
@@ -3014,7 +3014,7 @@
         <v>3.729845816814264</v>
       </c>
       <c r="J9">
-        <v>0.0001915969776900502</v>
+        <v>0.001149581866140301</v>
       </c>
     </row>
     <row r="10">
@@ -3040,10 +3040,10 @@
         </is>
       </c>
       <c r="F10">
-        <v>3.580290261257981</v>
+        <v>3.573138169982011</v>
       </c>
       <c r="G10">
-        <v>4.17049257959679</v>
+        <v>4.177644670872761</v>
       </c>
       <c r="H10">
         <v>3.785607196401799</v>
@@ -3052,7 +3052,7 @@
         <v>0.7836934151408895</v>
       </c>
       <c r="J10">
-        <v>0.4332200272644134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3078,10 +3078,10 @@
         </is>
       </c>
       <c r="F11">
-        <v>3.940218969807197</v>
+        <v>3.933691471744624</v>
       </c>
       <c r="G11">
-        <v>4.478878830374989</v>
+        <v>4.485406328437562</v>
       </c>
       <c r="H11">
         <v>3.785607196401799</v>
@@ -3090,7 +3090,7 @@
         <v>4.054512107912654</v>
       </c>
       <c r="J11">
-        <v>5.023904843418884e-05</v>
+        <v>0.0003014342906051331</v>
       </c>
     </row>
     <row r="12">
@@ -3116,10 +3116,10 @@
         </is>
       </c>
       <c r="F12">
-        <v>3.223747850797908</v>
+        <v>3.216050489260388</v>
       </c>
       <c r="G12">
-        <v>3.858946766645056</v>
+        <v>3.866644128182576</v>
       </c>
       <c r="H12">
         <v>3.785607196401799</v>
@@ -3128,7 +3128,7 @@
         <v>-1.981022828193633</v>
       </c>
       <c r="J12">
-        <v>0.04758871360093851</v>
+        <v>0.285532281605631</v>
       </c>
     </row>
     <row r="13">
@@ -3154,10 +3154,10 @@
         </is>
       </c>
       <c r="F13">
-        <v>2.549484783111099</v>
+        <v>2.541660265340789</v>
       </c>
       <c r="G13">
-        <v>3.195176840123287</v>
+        <v>3.203001357893597</v>
       </c>
       <c r="H13">
         <v>3.785607196401799</v>
@@ -3166,7 +3166,7 @@
         <v>-7.286582043622641</v>
       </c>
       <c r="J13">
-        <v>3.17917221436333e-13</v>
+        <v>1.907503328617998e-12</v>
       </c>
     </row>
     <row r="14">
@@ -3192,10 +3192,10 @@
         </is>
       </c>
       <c r="F14">
-        <v>3.991761783531235</v>
+        <v>3.985298124690841</v>
       </c>
       <c r="G14">
-        <v>4.525153526638493</v>
+        <v>4.531617185478888</v>
       </c>
       <c r="H14">
         <v>3.785607196401799</v>
@@ -3204,7 +3204,7 @@
         <v>4.566932590958604</v>
       </c>
       <c r="J14">
-        <v>4.94913077597273e-06</v>
+        <v>2.969478465583638e-05</v>
       </c>
     </row>
     <row r="15">
@@ -3230,10 +3230,10 @@
         </is>
       </c>
       <c r="F15">
-        <v>4.079606076636096</v>
+        <v>4.07334287023412</v>
       </c>
       <c r="G15">
-        <v>4.596456155311809</v>
+        <v>4.602719361713785</v>
       </c>
       <c r="H15">
         <v>3.785607196401799</v>
@@ -3242,7 +3242,7 @@
         <v>5.506237799793762</v>
       </c>
       <c r="J15">
-        <v>3.665832786608894e-08</v>
+        <v>2.199499671965336e-07</v>
       </c>
     </row>
     <row r="16">
@@ -3268,10 +3268,10 @@
         </is>
       </c>
       <c r="F16">
-        <v>3.863302329088807</v>
+        <v>3.856503880023534</v>
       </c>
       <c r="G16">
-        <v>4.424321511396144</v>
+        <v>4.431119960461417</v>
       </c>
       <c r="H16">
         <v>3.785607196401799</v>
@@ -3280,7 +3280,7 @@
         <v>3.289278703604106</v>
       </c>
       <c r="J16">
-        <v>0.001004445086078794</v>
+        <v>0.006026670516472762</v>
       </c>
     </row>
     <row r="17">
@@ -3306,10 +3306,10 @@
         </is>
       </c>
       <c r="F17">
-        <v>4.333116245069397</v>
+        <v>4.327866268538362</v>
       </c>
       <c r="G17">
-        <v>4.766352930715759</v>
+        <v>4.771602907246795</v>
       </c>
       <c r="H17">
         <v>3.785607196401799</v>
@@ -3318,7 +3318,7 @@
         <v>9.086311440638084</v>
       </c>
       <c r="J17">
-        <v>1.024559625464375e-19</v>
+        <v>6.14735775278625e-19</v>
       </c>
     </row>
     <row r="18">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="F18">
-        <v>3.499829405882427</v>
+        <v>3.492208062438226</v>
       </c>
       <c r="G18">
-        <v>4.128755183820451</v>
+        <v>4.136376527264653</v>
       </c>
       <c r="H18">
         <v>3.785607196401799</v>
@@ -3356,7 +3356,7 @@
         <v>0.2349654593711044</v>
       </c>
       <c r="J18">
-        <v>0.8142355421894732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -3382,10 +3382,10 @@
         </is>
       </c>
       <c r="F19">
-        <v>2.889321383018927</v>
+        <v>2.880966394262748</v>
       </c>
       <c r="G19">
-        <v>3.578788777004706</v>
+        <v>3.587143765760885</v>
       </c>
       <c r="H19">
         <v>3.785607196401799</v>
@@ -3394,7 +3394,7 @@
         <v>-4.121164006375145</v>
       </c>
       <c r="J19">
-        <v>3.769629404515896e-05</v>
+        <v>0.0002261777642709537</v>
       </c>
     </row>
     <row r="20">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="F20">
-        <v>3.083591755446736</v>
+        <v>3.077228560049815</v>
       </c>
       <c r="G20">
-        <v>3.608693090202287</v>
+        <v>3.615056285599208</v>
       </c>
       <c r="H20">
         <v>3.785607196401799</v>
@@ -3432,7 +3432,7 @@
         <v>-4.311496340738993</v>
       </c>
       <c r="J20">
-        <v>1.621534584913701e-05</v>
+        <v>9.729207509482206e-05</v>
       </c>
     </row>
     <row r="21">
@@ -3458,10 +3458,10 @@
         </is>
       </c>
       <c r="F21">
-        <v>3.386782902739057</v>
+        <v>3.380632200265356</v>
       </c>
       <c r="G21">
-        <v>3.894348972482497</v>
+        <v>3.900499674956198</v>
       </c>
       <c r="H21">
         <v>3.785607196401799</v>
@@ -3470,7 +3470,7 @@
         <v>-1.472129627602486</v>
       </c>
       <c r="J21">
-        <v>0.140985876213538</v>
+        <v>0.8459152572812282</v>
       </c>
     </row>
     <row r="22">
@@ -3496,10 +3496,10 @@
         </is>
       </c>
       <c r="F22">
-        <v>3.843790013723792</v>
+        <v>3.838111732836503</v>
       </c>
       <c r="G22">
-        <v>4.312371078274316</v>
+        <v>4.318049359161605</v>
       </c>
       <c r="H22">
         <v>3.785607196401799</v>
@@ -3508,7 +3508,7 @@
         <v>3.215500929907856</v>
       </c>
       <c r="J22">
-        <v>0.00130217072935406</v>
+        <v>0.007813024376124363</v>
       </c>
     </row>
     <row r="23">
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="F23">
-        <v>3.943898735532032</v>
+        <v>3.938387426317998</v>
       </c>
       <c r="G23">
-        <v>4.398701023379387</v>
+        <v>4.404212332593421</v>
       </c>
       <c r="H23">
         <v>3.785607196401799</v>
@@ -3546,7 +3546,7 @@
         <v>4.368836928578074</v>
       </c>
       <c r="J23">
-        <v>1.249099913483756e-05</v>
+        <v>7.494599480902535e-05</v>
       </c>
     </row>
     <row r="24">
@@ -3572,10 +3572,10 @@
         </is>
       </c>
       <c r="F24">
-        <v>3.927077582564348</v>
+        <v>3.921503327090925</v>
       </c>
       <c r="G24">
-        <v>4.387074299116408</v>
+        <v>4.392648554589831</v>
       </c>
       <c r="H24">
         <v>3.785607196401799</v>
@@ -3584,7 +3584,7 @@
         <v>4.160203944278014</v>
       </c>
       <c r="J24">
-        <v>3.179635383117614e-05</v>
+        <v>0.0001907781229870569</v>
       </c>
     </row>
     <row r="25">
@@ -3610,10 +3610,10 @@
         </is>
       </c>
       <c r="F25">
-        <v>4.198940714902536</v>
+        <v>4.194012630950302</v>
       </c>
       <c r="G25">
-        <v>4.605614296285514</v>
+        <v>4.610542380237749</v>
       </c>
       <c r="H25">
         <v>3.785607196401799</v>
@@ -3622,7 +3622,7 @@
         <v>7.811854645900932</v>
       </c>
       <c r="J25">
-        <v>5.63525281332026e-15</v>
+        <v>3.381151687992156e-14</v>
       </c>
     </row>
   </sheetData>
@@ -3708,16 +3708,16 @@
         </is>
       </c>
       <c r="F2">
-        <v>-0.67482529050386</v>
+        <v>-0.6199817188016753</v>
       </c>
       <c r="G2">
-        <v>0.1861405349776544</v>
+        <v>0.1312969632754697</v>
       </c>
       <c r="H2">
         <v>-1.909261195722953</v>
       </c>
       <c r="I2">
-        <v>0.3963152819818976</v>
+        <v>0.8434260816926008</v>
       </c>
     </row>
     <row r="3">
@@ -3743,16 +3743,16 @@
         </is>
       </c>
       <c r="F3">
-        <v>0.1920394019060964</v>
+        <v>0.2524045988264891</v>
       </c>
       <c r="G3">
-        <v>1.139686865115531</v>
+        <v>1.079321668195139</v>
       </c>
       <c r="H3">
         <v>4.727054714957268</v>
       </c>
       <c r="I3">
-        <v>3.355705302443557e-05</v>
+        <v>3.416998467793212e-05</v>
       </c>
     </row>
     <row r="4">
@@ -3778,16 +3778,16 @@
         </is>
       </c>
       <c r="F4">
-        <v>0.1488979172887153</v>
+        <v>0.2085260828750091</v>
       </c>
       <c r="G4">
-        <v>1.084975040141507</v>
+        <v>1.025346874555213</v>
       </c>
       <c r="H4">
         <v>4.433852916315219</v>
       </c>
       <c r="I4">
-        <v>0.0001347992265321452</v>
+        <v>0.0001388456812201423</v>
       </c>
     </row>
     <row r="5">
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="F5">
-        <v>0.4855155771354836</v>
+        <v>0.5458856729649693</v>
       </c>
       <c r="G5">
-        <v>1.433239946227965</v>
+        <v>1.37286985039848</v>
       </c>
       <c r="H5">
         <v>6.810203080958294</v>
       </c>
       <c r="I5">
-        <v>1.461981646855293e-10</v>
+        <v>1.461916003523157e-10</v>
       </c>
     </row>
     <row r="6">
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="F6">
-        <v>0.9516054736631562</v>
+        <v>1.012128905666101</v>
       </c>
       <c r="G6">
-        <v>1.901737001900473</v>
+        <v>1.841213569897528</v>
       </c>
       <c r="H6">
         <v>10.10165750265448</v>
       </c>
       <c r="I6">
-        <v>6.294964549624638e-14</v>
+        <v>8.147440274768344e-23</v>
       </c>
     </row>
     <row r="7">
@@ -3883,16 +3883,16 @@
         </is>
       </c>
       <c r="F7">
-        <v>0.4605309224206992</v>
+        <v>0.5178195158271313</v>
       </c>
       <c r="G7">
-        <v>1.359880100127134</v>
+        <v>1.302591506720702</v>
       </c>
       <c r="H7">
         <v>6.808690331082598</v>
       </c>
       <c r="I7">
-        <v>1.477419298012705e-10</v>
+        <v>1.477368351858247e-10</v>
       </c>
     </row>
     <row r="8">
@@ -3918,16 +3918,16 @@
         </is>
       </c>
       <c r="F8">
-        <v>0.4178934151294011</v>
+        <v>0.4743807704334718</v>
       </c>
       <c r="G8">
-        <v>1.304664297827026</v>
+        <v>1.248176942522956</v>
       </c>
       <c r="H8">
         <v>6.534085675959194</v>
       </c>
       <c r="I8">
-        <v>9.595694239195041e-10</v>
+        <v>9.599895476478604e-10</v>
       </c>
     </row>
     <row r="9">
@@ -3953,16 +3953,16 @@
         </is>
       </c>
       <c r="F9">
-        <v>0.7538470765153125</v>
+        <v>0.8111609555414807</v>
       </c>
       <c r="G9">
-        <v>1.653593202374342</v>
+        <v>1.596279323348174</v>
       </c>
       <c r="H9">
         <v>9.000321120579173</v>
       </c>
       <c r="I9">
-        <v>3.97459842815806e-14</v>
+        <v>3.375876374185858e-18</v>
       </c>
     </row>
     <row r="10">
@@ -3988,16 +3988,16 @@
         </is>
       </c>
       <c r="F10">
-        <v>1.220480447884796</v>
+        <v>1.277878424328196</v>
       </c>
       <c r="G10">
-        <v>2.121546783205039</v>
+        <v>2.064148806761639</v>
       </c>
       <c r="H10">
         <v>12.47600923650881</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.513790333569167e-34</v>
       </c>
     </row>
     <row r="11">
@@ -4023,16 +4023,16 @@
         </is>
       </c>
       <c r="F11">
-        <v>-0.5308652736077205</v>
+        <v>-0.4694662391406172</v>
       </c>
       <c r="G11">
-        <v>0.4330119640163146</v>
+        <v>0.3716129295492114</v>
       </c>
       <c r="H11">
         <v>-0.341488641059738</v>
       </c>
       <c r="I11">
-        <v>0.9993903788318729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -4058,16 +4058,16 @@
         </is>
       </c>
       <c r="F12">
-        <v>-0.1935393719288697</v>
+        <v>-0.1314886373079711</v>
       </c>
       <c r="G12">
-        <v>0.7805686282706907</v>
+        <v>0.718517893649792</v>
       </c>
       <c r="H12">
         <v>2.027099673554565</v>
       </c>
       <c r="I12">
-        <v>0.3267537546605244</v>
+        <v>0.6397833039499983</v>
       </c>
     </row>
     <row r="13">
@@ -4093,16 +4093,16 @@
         </is>
       </c>
       <c r="F13">
-        <v>0.2719121765665757</v>
+        <v>0.3341975729723345</v>
       </c>
       <c r="G13">
-        <v>1.249704031975426</v>
+        <v>1.187418635569667</v>
       </c>
       <c r="H13">
         <v>5.234572003573762</v>
       </c>
       <c r="I13">
-        <v>2.462585248497184e-06</v>
+        <v>2.48051397596548e-06</v>
       </c>
     </row>
     <row r="14">
@@ -4128,16 +4128,16 @@
         </is>
       </c>
       <c r="F14">
-        <v>-0.1394139409643047</v>
+        <v>-0.07802553101447213</v>
       </c>
       <c r="G14">
-        <v>0.8242965068975316</v>
+        <v>0.7629080969476991</v>
       </c>
       <c r="H14">
         <v>2.390517963510081</v>
       </c>
       <c r="I14">
-        <v>0.1594281674778332</v>
+        <v>0.2523693911517491</v>
       </c>
     </row>
     <row r="15">
@@ -4163,16 +4163,16 @@
         </is>
       </c>
       <c r="F15">
-        <v>0.3260322283879429</v>
+        <v>0.3876559854260865</v>
       </c>
       <c r="G15">
-        <v>1.293437289745464</v>
+        <v>1.231813532707321</v>
       </c>
       <c r="H15">
         <v>5.63101767529108</v>
       </c>
       <c r="I15">
-        <v>2.678247901233277e-07</v>
+        <v>2.687240464343373e-07</v>
       </c>
     </row>
     <row r="16">
@@ -4198,16 +4198,16 @@
         </is>
       </c>
       <c r="F16">
-        <v>-0.02098654407356726</v>
+        <v>0.04122038564321079</v>
       </c>
       <c r="G16">
-        <v>0.9555734962737478</v>
+        <v>0.8933665665569697</v>
       </c>
       <c r="H16">
         <v>3.219164959193013</v>
       </c>
       <c r="I16">
-        <v>0.0162326969039398</v>
+        <v>0.01928467538733176</v>
       </c>
     </row>
     <row r="17">
@@ -4233,16 +4233,16 @@
         </is>
       </c>
       <c r="F17">
-        <v>-0.6457608946747475</v>
+        <v>-0.5892524264085495</v>
       </c>
       <c r="G17">
-        <v>0.2413414314045206</v>
+        <v>0.1848329631383226</v>
       </c>
       <c r="H17">
         <v>-1.533489470050578</v>
       </c>
       <c r="I17">
-        <v>0.6425110237387239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -4268,16 +4268,16 @@
         </is>
       </c>
       <c r="F18">
-        <v>-0.3440823031134375</v>
+        <v>-0.2864030950219677</v>
       </c>
       <c r="G18">
-        <v>0.5613989678230805</v>
+        <v>0.5037197597316109</v>
       </c>
       <c r="H18">
         <v>0.8073019973970564</v>
       </c>
       <c r="I18">
-        <v>0.9662954417116996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -4303,16 +4303,16 @@
         </is>
       </c>
       <c r="F19">
-        <v>-0.6626113856727333</v>
+        <v>-0.6069232371374466</v>
       </c>
       <c r="G19">
-        <v>0.2116130910549624</v>
+        <v>0.1559249425196758</v>
       </c>
       <c r="H19">
         <v>-1.735299355917538</v>
       </c>
       <c r="I19">
-        <v>0.5082298655004107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -4338,16 +4338,16 @@
         </is>
       </c>
       <c r="F20">
-        <v>-0.03017897327686786</v>
+        <v>0.0300661726994676</v>
       </c>
       <c r="G20">
-        <v>0.9155838613983178</v>
+        <v>0.8553387154219823</v>
       </c>
       <c r="H20">
         <v>3.149068729189363</v>
       </c>
       <c r="I20">
-        <v>0.02035020405805354</v>
+        <v>0.02456875032849247</v>
       </c>
     </row>
     <row r="21">
@@ -4373,16 +4373,16 @@
         </is>
       </c>
       <c r="F21">
-        <v>0.632408285807595</v>
+        <v>0.6934725174337786</v>
       </c>
       <c r="G21">
-        <v>1.591029596522432</v>
+        <v>1.529965364896249</v>
       </c>
       <c r="H21">
         <v>7.801900172931258</v>
       </c>
       <c r="I21">
-        <v>1.262323578998803e-13</v>
+        <v>9.147282023241978e-14</v>
       </c>
     </row>
     <row r="22">
@@ -4408,16 +4408,16 @@
         </is>
       </c>
       <c r="F22">
-        <v>-0.1277490967561084</v>
+        <v>-0.07186922093936315</v>
       </c>
       <c r="G22">
-        <v>0.7494852247359782</v>
+        <v>0.6936053489192331</v>
       </c>
       <c r="H22">
         <v>2.384036811254053</v>
       </c>
       <c r="I22">
-        <v>0.1617379758663544</v>
+        <v>0.2568583407081285</v>
       </c>
     </row>
     <row r="23">
@@ -4443,16 +4443,16 @@
         </is>
       </c>
       <c r="F23">
-        <v>-0.4444945125204782</v>
+        <v>-0.3908329356110379</v>
       </c>
       <c r="G23">
-        <v>0.3979156811729341</v>
+        <v>0.3442541042634939</v>
       </c>
       <c r="H23">
         <v>-0.1859890783206825</v>
       </c>
       <c r="I23">
-        <v>0.9999694295367563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -4478,16 +4478,16 @@
         </is>
       </c>
       <c r="F24">
-        <v>0.185172597415852</v>
+        <v>0.2437434716120008</v>
       </c>
       <c r="G24">
-        <v>1.104651753975825</v>
+        <v>1.046080879779676</v>
       </c>
       <c r="H24">
         <v>4.718578135079305</v>
       </c>
       <c r="I24">
-        <v>3.497648832417877e-05</v>
+        <v>3.562481237203977e-05</v>
       </c>
     </row>
     <row r="25">
@@ -4513,16 +4513,16 @@
         </is>
       </c>
       <c r="F25">
-        <v>0.8473348550694506</v>
+        <v>0.9067789601457394</v>
       </c>
       <c r="G25">
-        <v>1.780522490530804</v>
+        <v>1.721078385454515</v>
       </c>
       <c r="H25">
         <v>9.472296363390559</v>
       </c>
       <c r="I25">
-        <v>5.195843755245733e-14</v>
+        <v>4.106370740933404e-20</v>
       </c>
     </row>
     <row r="26">
@@ -4548,16 +4548,16 @@
         </is>
       </c>
       <c r="F26">
-        <v>-0.7660731912340768</v>
+        <v>-0.7110470807991782</v>
       </c>
       <c r="G26">
-        <v>0.09775823190666294</v>
+        <v>0.04273212147176436</v>
       </c>
       <c r="H26">
         <v>-2.602403605384162</v>
       </c>
       <c r="I26">
-        <v>0.09659528508081217</v>
+        <v>0.1388592527980182</v>
       </c>
     </row>
     <row r="27">
@@ -4583,16 +4583,16 @@
         </is>
       </c>
       <c r="F27">
-        <v>-0.1330031604033378</v>
+        <v>-0.07350128518800636</v>
       </c>
       <c r="G27">
-        <v>0.8010913838151446</v>
+        <v>0.7415895085998131</v>
       </c>
       <c r="H27">
         <v>2.405832839065174</v>
       </c>
       <c r="I27">
-        <v>0.1540657273810933</v>
+        <v>0.2420346900997011</v>
       </c>
     </row>
     <row r="28">
@@ -4618,16 +4618,16 @@
         </is>
       </c>
       <c r="F28">
-        <v>0.5291039450648567</v>
+        <v>0.5894860775549775</v>
       </c>
       <c r="G28">
-        <v>1.477017272555528</v>
+        <v>1.416635140065407</v>
       </c>
       <c r="H28">
         <v>7.118869136561871</v>
       </c>
       <c r="I28">
-        <v>1.636346613764772e-11</v>
+        <v>1.632242452157856e-11</v>
       </c>
     </row>
     <row r="29">
@@ -4653,16 +4653,16 @@
         </is>
       </c>
       <c r="F29">
-        <v>0.2147004294494529</v>
+        <v>0.2724765286967888</v>
       </c>
       <c r="G29">
-        <v>1.121702753289768</v>
+        <v>1.063926654042432</v>
       </c>
       <c r="H29">
         <v>4.956231336061571</v>
       </c>
       <c r="I29">
-        <v>1.065137536571115e-05</v>
+        <v>1.078104518911751e-05</v>
       </c>
     </row>
     <row r="30">
@@ -4688,16 +4688,16 @@
         </is>
       </c>
       <c r="F30">
-        <v>0.8767085244707985</v>
+        <v>0.9353774949350347</v>
       </c>
       <c r="G30">
-        <v>1.797727652477</v>
+        <v>1.739058682012764</v>
       </c>
       <c r="H30">
         <v>9.767559291313681</v>
       </c>
       <c r="I30">
-        <v>6.505906924303417e-14</v>
+        <v>2.327167240975374e-21</v>
       </c>
     </row>
     <row r="31">
@@ -4723,16 +4723,16 @@
         </is>
       </c>
       <c r="F31">
-        <v>0.1771442753860511</v>
+        <v>0.2398088519853142</v>
       </c>
       <c r="G31">
-        <v>1.160888718822527</v>
+        <v>1.098224142223263</v>
       </c>
       <c r="H31">
         <v>4.575167495954651</v>
       </c>
       <c r="I31">
-        <v>6.97235357767223e-05</v>
+        <v>7.137587093618377e-05</v>
       </c>
     </row>
     <row r="32">
@@ -4758,16 +4758,16 @@
         </is>
       </c>
       <c r="F32">
-        <v>-0.4887366518282998</v>
+        <v>-0.4366092150914949</v>
       </c>
       <c r="G32">
-        <v>0.3295897300501238</v>
+        <v>0.2774622933133188</v>
       </c>
       <c r="H32">
         <v>-0.6541753238672201</v>
       </c>
       <c r="I32">
-        <v>0.9867275001480907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -4793,16 +4793,16 @@
         </is>
       </c>
       <c r="F33">
-        <v>-0.3088799970919929</v>
+        <v>-0.2549227710102889</v>
       </c>
       <c r="G33">
-        <v>0.5381714667767701</v>
+        <v>0.4842142406950661</v>
       </c>
       <c r="H33">
         <v>0.9105432272720652</v>
       </c>
       <c r="I33">
-        <v>0.9439704980322094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -4828,16 +4828,16 @@
         </is>
       </c>
       <c r="F34">
-        <v>-0.6749513713970992</v>
+        <v>-0.6260712045883778</v>
       </c>
       <c r="G34">
-        <v>0.09239750578167177</v>
+        <v>0.04351733897295051</v>
       </c>
       <c r="H34">
         <v>-2.553675407655829</v>
       </c>
       <c r="I34">
-        <v>0.1089627945675544</v>
+        <v>0.1598888608391472</v>
       </c>
     </row>
     <row r="35">
@@ -4863,16 +4863,16 @@
         </is>
       </c>
       <c r="F35">
-        <v>-0.009285290041079974</v>
+        <v>0.04848437401689498</v>
       </c>
       <c r="G35">
-        <v>0.8976160105079303</v>
+        <v>0.8398463464499554</v>
       </c>
       <c r="H35">
         <v>3.294861200969362</v>
       </c>
       <c r="I35">
-        <v>0.01263432457280556</v>
+        <v>0.01477054560946629</v>
       </c>
     </row>
     <row r="36">
@@ -4898,16 +4898,16 @@
         </is>
       </c>
       <c r="F36">
-        <v>0.5393454051451441</v>
+        <v>0.6011417433766224</v>
       </c>
       <c r="G36">
-        <v>1.509459745000952</v>
+        <v>1.447663406769474</v>
       </c>
       <c r="H36">
         <v>7.103954982578387</v>
       </c>
       <c r="I36">
-        <v>1.822564321685149e-11</v>
+        <v>1.818545420816265e-11</v>
       </c>
     </row>
     <row r="37">
@@ -4933,16 +4933,16 @@
         </is>
       </c>
       <c r="F37">
-        <v>-0.2254175106541332</v>
+        <v>-0.1719557468665717</v>
       </c>
       <c r="G37">
-        <v>0.6138559021170864</v>
+        <v>0.560394138329525</v>
       </c>
       <c r="H37">
         <v>1.556829847804521</v>
       </c>
       <c r="I37">
-        <v>0.6271685203095332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -4968,16 +4968,16 @@
         </is>
       </c>
       <c r="F38">
-        <v>-0.5891863748989455</v>
+        <v>-0.5410950104260951</v>
       </c>
       <c r="G38">
-        <v>0.1657794310616943</v>
+        <v>0.1176880665888439</v>
       </c>
       <c r="H38">
         <v>-1.886484155447412</v>
       </c>
       <c r="I38">
-        <v>0.4104429189272457</v>
+        <v>0.8884461236299267</v>
       </c>
     </row>
     <row r="39">
@@ -5003,16 +5003,16 @@
         </is>
       </c>
       <c r="F39">
-        <v>0.07339067109059533</v>
+        <v>0.1307650762672664</v>
       </c>
       <c r="G39">
-        <v>0.9740869711544311</v>
+        <v>0.9167125659777602</v>
       </c>
       <c r="H39">
         <v>3.911909967801885</v>
       </c>
       <c r="I39">
-        <v>0.001285271885810735</v>
+        <v>0.001373535760574074</v>
       </c>
     </row>
     <row r="40">
@@ -5038,16 +5038,16 @@
         </is>
       </c>
       <c r="F40">
-        <v>0.6215303831558502</v>
+        <v>0.6829940138110879</v>
       </c>
       <c r="G40">
-        <v>1.586421688768422</v>
+        <v>1.524958058113185</v>
       </c>
       <c r="H40">
         <v>7.697216754864134</v>
       </c>
       <c r="I40">
-        <v>2.449151992323095e-13</v>
+        <v>2.085928415091812e-13</v>
       </c>
     </row>
     <row r="41">
@@ -5073,16 +5073,16 @@
         </is>
       </c>
       <c r="F41">
-        <v>-0.8017827663904307</v>
+        <v>-0.7513501451022231</v>
       </c>
       <c r="G41">
-        <v>-0.01006256890977381</v>
+        <v>-0.06049519019798139</v>
       </c>
       <c r="H41">
         <v>-3.449244997172186</v>
       </c>
       <c r="I41">
-        <v>0.00742400975776103</v>
+        <v>0.00843234611656107</v>
       </c>
     </row>
     <row r="42">
@@ -5108,16 +5108,16 @@
         </is>
       </c>
       <c r="F42">
-        <v>-0.1320849280401711</v>
+        <v>-0.07327645579912523</v>
       </c>
       <c r="G42">
-        <v>0.7911241788222443</v>
+        <v>0.7323157065811984</v>
       </c>
       <c r="H42">
         <v>2.401229492032481</v>
       </c>
       <c r="I42">
-        <v>0.1556634893114256</v>
+        <v>0.2451012785480853</v>
       </c>
     </row>
     <row r="43">
@@ -5143,16 +5143,16 @@
         </is>
       </c>
       <c r="F43">
-        <v>0.4173692524823463</v>
+        <v>0.4800994867720468</v>
       </c>
       <c r="G43">
-        <v>1.402144427978973</v>
+        <v>1.339414193689273</v>
       </c>
       <c r="H43">
         <v>6.214993814833207</v>
       </c>
       <c r="I43">
-        <v>7.691488446148753e-09</v>
+        <v>7.699000748659558e-09</v>
       </c>
     </row>
     <row r="44">
@@ -5178,16 +5178,16 @@
         </is>
       </c>
       <c r="F44">
-        <v>0.305084917155608</v>
+        <v>0.3599124954482587</v>
       </c>
       <c r="G44">
-        <v>1.16579966892667</v>
+        <v>1.110972090634019</v>
       </c>
       <c r="H44">
         <v>5.7483316683613</v>
       </c>
       <c r="I44">
-        <v>1.348358389385851e-07</v>
+        <v>1.351924690164897e-07</v>
       </c>
     </row>
     <row r="45">
@@ -5213,16 +5213,16 @@
         </is>
       </c>
       <c r="F45">
-        <v>0.8508903338612006</v>
+        <v>0.9101045271248758</v>
       </c>
       <c r="G45">
-        <v>1.780468681900323</v>
+        <v>1.721254488636648</v>
       </c>
       <c r="H45">
         <v>9.52174561047396</v>
       </c>
       <c r="I45">
-        <v>4.929390229335695e-14</v>
+        <v>2.554411275891748e-20</v>
       </c>
     </row>
     <row r="46">
@@ -5248,16 +5248,16 @@
         </is>
       </c>
       <c r="F46">
-        <v>0.06461383768737772</v>
+        <v>0.1303043141714039</v>
       </c>
       <c r="G46">
-        <v>1.095860591991868</v>
+        <v>1.030170115507842</v>
       </c>
       <c r="H46">
         <v>3.785257673498818</v>
       </c>
       <c r="I46">
-        <v>0.002126478356641592</v>
+        <v>0.002303240926137803</v>
       </c>
     </row>
     <row r="47">
@@ -5283,16 +5283,16 @@
         </is>
       </c>
       <c r="F47">
-        <v>-0.6391913570375104</v>
+        <v>-0.5952678949964039</v>
       </c>
       <c r="G47">
-        <v>0.05034432746497897</v>
+        <v>0.006420865423872379</v>
       </c>
       <c r="H47">
         <v>-2.872554054753765</v>
       </c>
       <c r="I47">
-        <v>0.04686560846352772</v>
+        <v>0.06107526238863453</v>
       </c>
     </row>
     <row r="48">
@@ -5318,16 +5318,16 @@
         </is>
       </c>
       <c r="F48">
-        <v>-1.069545898727341</v>
+        <v>-1.026534629992279</v>
       </c>
       <c r="G48">
-        <v>-0.3943303476217446</v>
+        <v>-0.4373416163568066</v>
       </c>
       <c r="H48">
         <v>-7.29263362146515</v>
       </c>
       <c r="I48">
-        <v>4.599542968719561e-12</v>
+        <v>4.559307832303193e-12</v>
       </c>
     </row>
     <row r="49">
@@ -5353,16 +5353,16 @@
         </is>
       </c>
       <c r="F49">
-        <v>-1.160512635432557</v>
+        <v>-1.117788347778038</v>
       </c>
       <c r="G49">
-        <v>-0.4898022778298403</v>
+        <v>-0.5325265654843592</v>
       </c>
       <c r="H49">
         <v>-8.276644064962909</v>
       </c>
       <c r="I49">
-        <v>6.794564910705958e-14</v>
+        <v>1.900428073497514e-15</v>
       </c>
     </row>
     <row r="50">
@@ -5388,16 +5388,16 @@
         </is>
       </c>
       <c r="F50">
-        <v>-1.148490688521553</v>
+        <v>-1.105485866875209</v>
       </c>
       <c r="G50">
-        <v>-0.4733763475101801</v>
+        <v>-0.5163811691565248</v>
       </c>
       <c r="H50">
         <v>-8.080912070753934</v>
       </c>
       <c r="I50">
-        <v>8.537615059367454e-14</v>
+        <v>9.642622603147587e-15</v>
       </c>
     </row>
     <row r="51">
@@ -5423,16 +5423,16 @@
         </is>
       </c>
       <c r="F51">
-        <v>-1.385757054926174</v>
+        <v>-1.343763178445701</v>
       </c>
       <c r="G51">
-        <v>-0.7265131106128531</v>
+        <v>-0.7685069870933254</v>
       </c>
       <c r="H51">
         <v>-10.7776923763613</v>
       </c>
       <c r="I51">
-        <v>5.939693181744587e-14</v>
+        <v>6.581319505372579e-26</v>
       </c>
     </row>
     <row r="52">
@@ -5458,16 +5458,16 @@
         </is>
       </c>
       <c r="F52">
-        <v>-0.7667515887832969</v>
+        <v>-0.7248067602967387</v>
       </c>
       <c r="G52">
-        <v>-0.1082776279932576</v>
+        <v>-0.1502224564798157</v>
       </c>
       <c r="H52">
         <v>-4.469988607874927</v>
       </c>
       <c r="I52">
-        <v>0.0001141094920407149</v>
+        <v>0.0001173356453738036</v>
       </c>
     </row>
     <row r="53">
@@ -5493,16 +5493,16 @@
         </is>
       </c>
       <c r="F53">
-        <v>-0.857572532430404</v>
+        <v>-0.815933259076458</v>
       </c>
       <c r="G53">
-        <v>-0.203895351259462</v>
+        <v>-0.2455346246134079</v>
       </c>
       <c r="H53">
         <v>-5.462179921518356</v>
       </c>
       <c r="I53">
-        <v>7.021864210088324e-07</v>
+        <v>7.054845517606415e-07</v>
       </c>
     </row>
     <row r="54">
@@ -5528,16 +5528,16 @@
         </is>
       </c>
       <c r="F54">
-        <v>-0.8453925265726665</v>
+        <v>-0.80349285595456</v>
       </c>
       <c r="G54">
-        <v>-0.1876274798865353</v>
+        <v>-0.229527150504642</v>
       </c>
       <c r="H54">
         <v>-5.28275425778431</v>
       </c>
       <c r="I54">
-        <v>1.896241304533142e-06</v>
+        <v>1.908840602043202e-06</v>
       </c>
     </row>
     <row r="55">
@@ -5563,16 +5563,16 @@
         </is>
       </c>
       <c r="F55">
-        <v>-1.08211702158293</v>
+        <v>-1.041297330607536</v>
       </c>
       <c r="G55">
-        <v>-0.4413061143835652</v>
+        <v>-0.4821258053589592</v>
       </c>
       <c r="H55">
         <v>-7.996742640928115</v>
       </c>
       <c r="I55">
-        <v>9.969802761133906e-14</v>
+        <v>1.916308169376077e-14</v>
       </c>
     </row>
     <row r="56">
@@ -5598,16 +5598,16 @@
         </is>
       </c>
       <c r="F56">
-        <v>-0.4086919009122538</v>
+        <v>-0.3685006601887395</v>
       </c>
       <c r="G56">
-        <v>0.2222532339989425</v>
+        <v>0.1820619932754281</v>
       </c>
       <c r="H56">
         <v>-0.9939553158154487</v>
       </c>
       <c r="I56">
-        <v>0.9200475213819679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -5633,16 +5633,16 @@
         </is>
       </c>
       <c r="F57">
-        <v>-0.3966118152761766</v>
+        <v>-0.356147447440977</v>
       </c>
       <c r="G57">
-        <v>0.2386210255935291</v>
+        <v>0.1981566577583296</v>
       </c>
       <c r="H57">
         <v>-0.8366066164990732</v>
       </c>
       <c r="I57">
-        <v>0.9607322159690908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -5668,16 +5668,16 @@
         </is>
       </c>
       <c r="F58">
-        <v>-0.6307698374366403</v>
+        <v>-0.5917124181750769</v>
       </c>
       <c r="G58">
-        <v>-0.01762408175330044</v>
+        <v>-0.0566815010148638</v>
       </c>
       <c r="H58">
         <v>-3.557113105396148</v>
       </c>
       <c r="I58">
-        <v>0.005038421965649631</v>
+        <v>0.005624291167299758</v>
       </c>
     </row>
     <row r="59">
@@ -5703,16 +5703,16 @@
         </is>
       </c>
       <c r="F59">
-        <v>-0.3002829556588654</v>
+        <v>-0.2602147418077252</v>
       </c>
       <c r="G59">
-        <v>0.3287308328895293</v>
+        <v>0.2886626190383891</v>
       </c>
       <c r="H59">
         <v>0.1521290548568286</v>
       </c>
       <c r="I59">
-        <v>0.9999887362660034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -5738,16 +5738,16 @@
         </is>
       </c>
       <c r="F60">
-        <v>-0.533245294193433</v>
+        <v>-0.4947363591449094</v>
       </c>
       <c r="G60">
-        <v>0.07129004191680369</v>
+        <v>0.03278110686828015</v>
       </c>
       <c r="H60">
         <v>-2.570399841677744</v>
       </c>
       <c r="I60">
-        <v>0.1045856404998377</v>
+        <v>0.152371793634687</v>
       </c>
     </row>
     <row r="61">
@@ -5773,16 +5773,16 @@
         </is>
       </c>
       <c r="F61">
-        <v>-0.549878713140884</v>
+        <v>-0.5110628100259202</v>
       </c>
       <c r="G61">
-        <v>0.05947558363359076</v>
+        <v>0.02065968051862702</v>
       </c>
       <c r="H61">
         <v>-2.707109499517742</v>
       </c>
       <c r="I61">
-        <v>0.07379124471315457</v>
+        <v>0.1018078001744107</v>
       </c>
     </row>
   </sheetData>
@@ -5873,10 +5873,10 @@
         </is>
       </c>
       <c r="F2">
-        <v>3.620848994338413</v>
+        <v>3.630247996210036</v>
       </c>
       <c r="G2">
-        <v>4.240640028972063</v>
+        <v>4.23124102710044</v>
       </c>
       <c r="H2">
         <v>3.676786548341896</v>
@@ -5885,7 +5885,7 @@
         <v>2.110880368441482</v>
       </c>
       <c r="J2">
-        <v>0.03478259588078539</v>
+        <v>0.1391303835231416</v>
       </c>
     </row>
     <row r="3">
@@ -5911,10 +5911,10 @@
         </is>
       </c>
       <c r="F3">
-        <v>3.697592026599773</v>
+        <v>3.706609163287303</v>
       </c>
       <c r="G3">
-        <v>4.292202023845372</v>
+        <v>4.283184887157843</v>
       </c>
       <c r="H3">
         <v>3.676786548341896</v>
@@ -5923,7 +5923,7 @@
         <v>2.756086483277596</v>
       </c>
       <c r="J3">
-        <v>0.005849752768025467</v>
+        <v>0.02339901107210187</v>
       </c>
     </row>
     <row r="4">
@@ -5949,10 +5949,10 @@
         </is>
       </c>
       <c r="F4">
-        <v>3.878564839271694</v>
+        <v>3.887410007043814</v>
       </c>
       <c r="G4">
-        <v>4.461834824730706</v>
+        <v>4.452989656958586</v>
       </c>
       <c r="H4">
         <v>3.676786548341896</v>
@@ -5961,7 +5961,7 @@
         <v>4.35801061770642</v>
       </c>
       <c r="J4">
-        <v>1.312500179734793e-05</v>
+        <v>5.250000718939173e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5987,10 +5987,10 @@
         </is>
       </c>
       <c r="F5">
-        <v>3.319533623090911</v>
+        <v>3.329805701818449</v>
       </c>
       <c r="G5">
-        <v>3.996897282481307</v>
+        <v>3.986625203753769</v>
       </c>
       <c r="H5">
         <v>3.676786548341896</v>
@@ -5999,7 +5999,7 @@
         <v>-0.1412416254354522</v>
       </c>
       <c r="J5">
-        <v>0.8876790633193066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -6025,10 +6025,10 @@
         </is>
       </c>
       <c r="F6">
-        <v>3.634296779694588</v>
+        <v>3.643649105545531</v>
       </c>
       <c r="G6">
-        <v>4.251009893976182</v>
+        <v>4.241657568125239</v>
       </c>
       <c r="H6">
         <v>3.676786548341896</v>
@@ -6037,7 +6037,7 @@
         <v>2.220894768679337</v>
       </c>
       <c r="J6">
-        <v>0.02635808964381776</v>
+        <v>0.105432358575271</v>
       </c>
     </row>
     <row r="7">
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="F7">
-        <v>3.813368153425787</v>
+        <v>3.822136954258588</v>
       </c>
       <c r="G7">
-        <v>4.391602333489862</v>
+        <v>4.38283353265706</v>
       </c>
       <c r="H7">
         <v>3.676786548341896</v>
@@ -6075,7 +6075,7 @@
         <v>3.792675048163456</v>
       </c>
       <c r="J7">
-        <v>0.0001490331239648837</v>
+        <v>0.0005961324958595346</v>
       </c>
     </row>
     <row r="8">
@@ -6101,10 +6101,10 @@
         </is>
       </c>
       <c r="F8">
-        <v>3.861178447109625</v>
+        <v>3.869981665807243</v>
       </c>
       <c r="G8">
-        <v>4.44168221753411</v>
+        <v>4.432878998836491</v>
       </c>
       <c r="H8">
         <v>3.676786548341896</v>
@@ -6113,7 +6113,7 @@
         <v>4.212208188170536</v>
       </c>
       <c r="J8">
-        <v>2.528863013458488e-05</v>
+        <v>0.0001011545205383395</v>
       </c>
     </row>
     <row r="9">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="F9">
-        <v>3.353348808753836</v>
+        <v>3.363484425061878</v>
       </c>
       <c r="G9">
-        <v>4.021713833467507</v>
+        <v>4.011578217159466</v>
       </c>
       <c r="H9">
         <v>3.676786548341896</v>
@@ -6151,7 +6151,7 @@
         <v>0.08281911690290185</v>
       </c>
       <c r="J9">
-        <v>0.933995368256283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -6177,10 +6177,10 @@
         </is>
       </c>
       <c r="F10">
-        <v>3.100876197891631</v>
+        <v>3.110811549444294</v>
       </c>
       <c r="G10">
-        <v>3.756035320358296</v>
+        <v>3.746099968805632</v>
       </c>
       <c r="H10">
         <v>3.676786548341896</v>
@@ -6189,7 +6189,7 @@
         <v>-1.952678981039287</v>
       </c>
       <c r="J10">
-        <v>0.05085764582789975</v>
+        <v>0.203430583311599</v>
       </c>
     </row>
     <row r="11">
@@ -6215,10 +6215,10 @@
         </is>
       </c>
       <c r="F11">
-        <v>3.467551243884892</v>
+        <v>3.476998860374558</v>
       </c>
       <c r="G11">
-        <v>4.090548034281471</v>
+        <v>4.081100417791805</v>
       </c>
       <c r="H11">
         <v>3.676786548341896</v>
@@ -6227,7 +6227,7 @@
         <v>0.8456296079316989</v>
       </c>
       <c r="J11">
-        <v>0.3977594031273129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -6253,10 +6253,10 @@
         </is>
       </c>
       <c r="F12">
-        <v>3.735779554665523</v>
+        <v>3.744844127403753</v>
       </c>
       <c r="G12">
-        <v>4.333517590328867</v>
+        <v>4.324453017590637</v>
       </c>
       <c r="H12">
         <v>3.676786548341896</v>
@@ -6265,7 +6265,7 @@
         <v>3.084265793538064</v>
       </c>
       <c r="J12">
-        <v>0.002040552029968807</v>
+        <v>0.008162208119875228</v>
       </c>
     </row>
     <row r="13">
@@ -6291,10 +6291,10 @@
         </is>
       </c>
       <c r="F13">
-        <v>3.825585010197067</v>
+        <v>3.834907468606222</v>
       </c>
       <c r="G13">
-        <v>4.440328599107753</v>
+        <v>4.431006140698598</v>
       </c>
       <c r="H13">
         <v>3.676786548341896</v>
@@ -6303,7 +6303,7 @@
         <v>3.822786393573101</v>
       </c>
       <c r="J13">
-        <v>0.000131952081448854</v>
+        <v>0.0005278083257954162</v>
       </c>
     </row>
     <row r="14">
@@ -6329,10 +6329,10 @@
         </is>
       </c>
       <c r="F14">
-        <v>3.108009358920145</v>
+        <v>3.11786623904634</v>
       </c>
       <c r="G14">
-        <v>3.757993901440516</v>
+        <v>3.748137021314321</v>
       </c>
       <c r="H14">
         <v>3.676786548341896</v>
@@ -6341,7 +6341,7 @@
         <v>-1.932194675057677</v>
       </c>
       <c r="J14">
-        <v>0.05333548218917965</v>
+        <v>0.2133419287567186</v>
       </c>
     </row>
     <row r="15">
@@ -6367,10 +6367,10 @@
         </is>
       </c>
       <c r="F15">
-        <v>3.68739937708889</v>
+        <v>3.696487524134503</v>
       </c>
       <c r="G15">
-        <v>4.286691954879525</v>
+        <v>4.277603807833912</v>
       </c>
       <c r="H15">
         <v>3.676786548341896</v>
@@ -6379,7 +6379,7 @@
         <v>2.667059651773243</v>
       </c>
       <c r="J15">
-        <v>0.007651808921447254</v>
+        <v>0.03060723568578902</v>
       </c>
     </row>
     <row r="16">
@@ -6405,10 +6405,10 @@
         </is>
       </c>
       <c r="F16">
-        <v>4.075621179118803</v>
+        <v>4.083595570768329</v>
       </c>
       <c r="G16">
-        <v>4.601470255280386</v>
+        <v>4.59349586363086</v>
       </c>
       <c r="H16">
         <v>3.676786548341896</v>
@@ -6417,7 +6417,7 @@
         <v>6.483147870025133</v>
       </c>
       <c r="J16">
-        <v>8.982837945562506e-11</v>
+        <v>3.593135178225002e-10</v>
       </c>
     </row>
     <row r="17">
@@ -6443,10 +6443,10 @@
         </is>
       </c>
       <c r="F17">
-        <v>3.872223732761673</v>
+        <v>3.881442572616966</v>
       </c>
       <c r="G17">
-        <v>4.480134484358106</v>
+        <v>4.470915644502813</v>
       </c>
       <c r="H17">
         <v>3.676786548341896</v>
@@ -6455,7 +6455,7 @@
         <v>4.232035663806681</v>
       </c>
       <c r="J17">
-        <v>2.31585675068676e-05</v>
+        <v>9.263427002747042e-05</v>
       </c>
     </row>
     <row r="18">
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="F18">
-        <v>2.775777258485019</v>
+        <v>2.785906651780739</v>
       </c>
       <c r="G18">
-        <v>3.443731923960755</v>
+        <v>3.433602530665036</v>
       </c>
       <c r="H18">
         <v>3.676786548341896</v>
@@ -6493,7 +6493,7 @@
         <v>-4.373283417836639</v>
       </c>
       <c r="J18">
-        <v>1.223916631439371e-05</v>
+        <v>4.895666525757484e-05</v>
       </c>
     </row>
     <row r="19">
@@ -6519,10 +6519,10 @@
         </is>
       </c>
       <c r="F19">
-        <v>3.073562185315753</v>
+        <v>3.08351250610463</v>
       </c>
       <c r="G19">
-        <v>3.729708412426831</v>
+        <v>3.719758091637954</v>
       </c>
       <c r="H19">
         <v>3.676786548341896</v>
@@ -6531,7 +6531,7 @@
         <v>-2.160319215474184</v>
       </c>
       <c r="J19">
-        <v>0.03074796643084412</v>
+        <v>0.1229918657233765</v>
       </c>
     </row>
     <row r="20">
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="F20">
-        <v>3.458128187498303</v>
+        <v>3.46784868707459</v>
       </c>
       <c r="G20">
-        <v>4.099119494004226</v>
+        <v>4.089398994427939</v>
       </c>
       <c r="H20">
         <v>3.676786548341896</v>
@@ -6569,7 +6569,7 @@
         <v>0.8184681424527414</v>
       </c>
       <c r="J20">
-        <v>0.4130899257209493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="F21">
-        <v>3.6988926600166</v>
+        <v>3.708608439201213</v>
       </c>
       <c r="G21">
-        <v>4.339572693423611</v>
+        <v>4.329856914238998</v>
       </c>
       <c r="H21">
         <v>3.676786548341896</v>
@@ -6607,7 +6607,7 @@
         <v>2.753582838137522</v>
       </c>
       <c r="J21">
-        <v>0.005894685043618248</v>
+        <v>0.02357874017447299</v>
       </c>
     </row>
     <row r="22">
@@ -6633,10 +6633,10 @@
         </is>
       </c>
       <c r="F22">
-        <v>2.395009599272879</v>
+        <v>2.405293316637426</v>
       </c>
       <c r="G22">
-        <v>3.07314073620741</v>
+        <v>3.062857018842863</v>
       </c>
       <c r="H22">
         <v>3.676786548341896</v>
@@ -6645,7 +6645,7 @@
         <v>-7.161634281888061</v>
       </c>
       <c r="J22">
-        <v>7.972086969858175e-13</v>
+        <v>3.18883478794327e-12</v>
       </c>
     </row>
     <row r="23">
@@ -6671,10 +6671,10 @@
         </is>
       </c>
       <c r="F23">
-        <v>2.59295908082841</v>
+        <v>2.603297384119096</v>
       </c>
       <c r="G23">
-        <v>3.27468973482866</v>
+        <v>3.264351431537974</v>
       </c>
       <c r="H23">
         <v>3.676786548341896</v>
@@ -6683,7 +6683,7 @@
         <v>-5.614368788413116</v>
       </c>
       <c r="J23">
-        <v>1.972810612424917e-08</v>
+        <v>7.891242449699669e-08</v>
       </c>
     </row>
     <row r="24">
@@ -6709,10 +6709,10 @@
         </is>
       </c>
       <c r="F24">
-        <v>2.914446336582965</v>
+        <v>2.92491624216372</v>
       </c>
       <c r="G24">
-        <v>3.604855137543493</v>
+        <v>3.594385231962738</v>
       </c>
       <c r="H24">
         <v>3.676786548341896</v>
@@ -6721,7 +6721,7 @@
         <v>-3.112563584810576</v>
       </c>
       <c r="J24">
-        <v>0.001854700560037415</v>
+        <v>0.007418802240149659</v>
       </c>
     </row>
     <row r="25">
@@ -6747,10 +6747,10 @@
         </is>
       </c>
       <c r="F25">
-        <v>3.840525708367475</v>
+        <v>3.849970338302695</v>
       </c>
       <c r="G25">
-        <v>4.463325558738327</v>
+        <v>4.453880928803107</v>
       </c>
       <c r="H25">
         <v>3.676786548341896</v>
@@ -6759,7 +6759,7 @@
         <v>3.930242366690217</v>
       </c>
       <c r="J25">
-        <v>8.486027833218412e-05</v>
+        <v>0.0003394411133287365</v>
       </c>
     </row>
   </sheetData>
@@ -6845,16 +6845,16 @@
         </is>
       </c>
       <c r="F2">
-        <v>-0.4644595541878276</v>
+        <v>-0.4033841346597957</v>
       </c>
       <c r="G2">
-        <v>0.3361545270531594</v>
+        <v>0.2750791075251275</v>
       </c>
       <c r="H2">
         <v>-0.498924112633662</v>
       </c>
       <c r="I2">
-        <v>0.9593299109120914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6880,16 +6880,16 @@
         </is>
       </c>
       <c r="F3">
-        <v>-0.6428969135062206</v>
+        <v>-0.5813432507998971</v>
       </c>
       <c r="G3">
-        <v>0.1639862728142974</v>
+        <v>0.1024326101079739</v>
       </c>
       <c r="H3">
         <v>-1.847812351072618</v>
       </c>
       <c r="I3">
-        <v>0.2509696144499185</v>
+        <v>0.3877769612079615</v>
       </c>
     </row>
     <row r="4">
@@ -6915,16 +6915,16 @@
         </is>
       </c>
       <c r="F4">
-        <v>-0.1633704096421106</v>
+        <v>-0.09686460232454841</v>
       </c>
       <c r="G4">
-        <v>0.7084285273803679</v>
+        <v>0.6419227200628057</v>
       </c>
       <c r="H4">
         <v>1.946437763636317</v>
       </c>
       <c r="I4">
-        <v>0.2087188308773945</v>
+        <v>0.3096130623903912</v>
       </c>
     </row>
     <row r="5">
@@ -6950,16 +6950,16 @@
         </is>
       </c>
       <c r="F5">
-        <v>-0.5672286061945362</v>
+        <v>-0.5074319246620743</v>
       </c>
       <c r="G5">
-        <v>0.2166229926372812</v>
+        <v>0.1568263111048194</v>
       </c>
       <c r="H5">
         <v>-1.392512369863653</v>
       </c>
       <c r="I5">
-        <v>0.5040151525203673</v>
+        <v>0.9826037908025598</v>
       </c>
     </row>
     <row r="6">
@@ -6985,16 +6985,16 @@
         </is>
       </c>
       <c r="F6">
-        <v>-0.0890487821330424</v>
+        <v>-0.02409449111970774</v>
       </c>
       <c r="G6">
-        <v>0.7624119270059679</v>
+        <v>0.6974576359926332</v>
       </c>
       <c r="H6">
         <v>2.462060810161792</v>
       </c>
       <c r="I6">
-        <v>0.06598963172730221</v>
+        <v>0.08288474575641266</v>
       </c>
     </row>
     <row r="7">
@@ -7020,16 +7020,16 @@
         </is>
       </c>
       <c r="F7">
-        <v>0.08314100651935152</v>
+        <v>0.1485702551746086</v>
       </c>
       <c r="G7">
-        <v>0.9408277519108289</v>
+        <v>0.8753985032555718</v>
       </c>
       <c r="H7">
         <v>3.716824479337593</v>
       </c>
       <c r="I7">
-        <v>0.001155922251558361</v>
+        <v>0.001210454962710746</v>
       </c>
     </row>
     <row r="8">
@@ -7055,16 +7055,16 @@
         </is>
       </c>
       <c r="F8">
-        <v>-0.5555300916497887</v>
+        <v>-0.4951578518321588</v>
       </c>
       <c r="G8">
-        <v>0.2358662784049102</v>
+        <v>0.1754940385872802</v>
       </c>
       <c r="H8">
         <v>-1.257515847503484</v>
       </c>
       <c r="I8">
-        <v>0.5901047438816044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -7090,16 +7090,16 @@
         </is>
       </c>
       <c r="F9">
-        <v>-0.6084803404282568</v>
+        <v>-0.5474970276160795</v>
       </c>
       <c r="G9">
-        <v>0.1909263494552929</v>
+        <v>0.1299430366431155</v>
       </c>
       <c r="H9">
         <v>-1.62614364262368</v>
       </c>
       <c r="I9">
-        <v>0.3637904607007678</v>
+        <v>0.6235146106036623</v>
       </c>
     </row>
     <row r="10">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="F10">
-        <v>-0.1755191772873156</v>
+        <v>-0.1098156326069792</v>
       </c>
       <c r="G10">
-        <v>0.6857632087367429</v>
+        <v>0.6200596640564064</v>
       </c>
       <c r="H10">
         <v>1.844363048555663</v>
       </c>
       <c r="I10">
-        <v>0.2525392227945089</v>
+        <v>0.3907814921227671</v>
       </c>
     </row>
     <row r="11">
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="F11">
-        <v>-0.4337087692538717</v>
+        <v>-0.3750048224970698</v>
       </c>
       <c r="G11">
-        <v>0.3358185915257863</v>
+        <v>0.2771146447689844</v>
       </c>
       <c r="H11">
         <v>-0.3960309212601491</v>
       </c>
       <c r="I11">
-        <v>0.9789568501865966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -7195,16 +7195,16 @@
         </is>
       </c>
       <c r="F12">
-        <v>-0.003124509061674385</v>
+        <v>0.06066231705643815</v>
       </c>
       <c r="G12">
-        <v>0.8330323537559802</v>
+        <v>0.7692455276378676</v>
       </c>
       <c r="H12">
         <v>3.089983469666968</v>
       </c>
       <c r="I12">
-        <v>0.01078361311557541</v>
+        <v>0.01201005812551544</v>
       </c>
     </row>
     <row r="13">
@@ -7230,16 +7230,16 @@
         </is>
       </c>
       <c r="F13">
-        <v>0.04205436294819975</v>
+        <v>0.1064158061753328</v>
       </c>
       <c r="G13">
-        <v>0.8857436594741914</v>
+        <v>0.8213822162470583</v>
       </c>
       <c r="H13">
         <v>3.423615216731171</v>
       </c>
       <c r="I13">
-        <v>0.003458802024044028</v>
+        <v>0.003707643011912236</v>
       </c>
     </row>
     <row r="14">
@@ -7265,16 +7265,16 @@
         </is>
       </c>
       <c r="F14">
-        <v>-0.7658464351055504</v>
+        <v>-0.7024907569830803</v>
       </c>
       <c r="G14">
-        <v>0.06465867518911428</v>
+        <v>0.001302997066644218</v>
       </c>
       <c r="H14">
         <v>-2.62848838459812</v>
       </c>
       <c r="I14">
-        <v>0.04261429776564862</v>
+        <v>0.05145917063728185</v>
       </c>
     </row>
     <row r="15">
@@ -7300,16 +7300,16 @@
         </is>
       </c>
       <c r="F15">
-        <v>-1.018122506318666</v>
+        <v>-0.9552738020496635</v>
       </c>
       <c r="G15">
-        <v>-0.1942631204257969</v>
+        <v>-0.2571118246947991</v>
       </c>
       <c r="H15">
         <v>-4.581437118841346</v>
       </c>
       <c r="I15">
-        <v>2.737951077269596e-05</v>
+        <v>2.770748778910181e-05</v>
       </c>
     </row>
     <row r="16">
@@ -7335,16 +7335,16 @@
         </is>
       </c>
       <c r="F16">
-        <v>-1.130780670294074</v>
+        <v>-1.065742576338699</v>
       </c>
       <c r="G16">
-        <v>-0.2782214207608192</v>
+        <v>-0.3432595147161943</v>
       </c>
       <c r="H16">
         <v>-5.145186389174902</v>
       </c>
       <c r="I16">
-        <v>1.596553653948618e-06</v>
+        <v>1.603531946259406e-06</v>
       </c>
     </row>
     <row r="17">
@@ -7370,16 +7370,16 @@
         </is>
       </c>
       <c r="F17">
-        <v>-0.6562102656223255</v>
+        <v>-0.5950884198901577</v>
       </c>
       <c r="G17">
-        <v>0.1450123987942992</v>
+        <v>0.08389055306213133</v>
       </c>
       <c r="H17">
         <v>-1.986322911416005</v>
       </c>
       <c r="I17">
-        <v>0.1930822186143397</v>
+        <v>0.2819848812275247</v>
       </c>
     </row>
     <row r="18">
@@ -7405,16 +7405,16 @@
         </is>
       </c>
       <c r="F18">
-        <v>-0.7691133981527614</v>
+        <v>-0.7057647875303115</v>
       </c>
       <c r="G18">
-        <v>0.06129906701430471</v>
+        <v>-0.002049543608145188</v>
       </c>
       <c r="H18">
         <v>-2.65362491934828</v>
       </c>
       <c r="I18">
-        <v>0.03978219695265095</v>
+        <v>0.04777937340675449</v>
       </c>
     </row>
     <row r="19">
@@ -7440,16 +7440,16 @@
         </is>
       </c>
       <c r="F19">
-        <v>-0.5084150563462464</v>
+        <v>-0.4458444697786171</v>
       </c>
       <c r="G19">
-        <v>0.3117985920358161</v>
+        <v>0.2492280054681869</v>
       </c>
       <c r="H19">
         <v>-0.746288819548044</v>
       </c>
       <c r="I19">
-        <v>0.8782815648015667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -7475,16 +7475,16 @@
         </is>
       </c>
       <c r="F20">
-        <v>-0.9618544100276695</v>
+        <v>-0.8996341961263736</v>
       </c>
       <c r="G20">
-        <v>-0.1462336615800849</v>
+        <v>-0.2084538754813807</v>
       </c>
       <c r="H20">
         <v>-4.229607422624412</v>
       </c>
       <c r="I20">
-        <v>0.0001375112779378185</v>
+        <v>0.0001404596840691379</v>
       </c>
     </row>
     <row r="21">
@@ -7510,16 +7510,16 @@
         </is>
       </c>
       <c r="F21">
-        <v>-1.299184909376087</v>
+        <v>-1.239126564332901</v>
       </c>
       <c r="G21">
-        <v>-0.5119032646624411</v>
+        <v>-0.5719616097056275</v>
       </c>
       <c r="H21">
         <v>-7.161821847693237</v>
       </c>
       <c r="I21">
-        <v>4.805378317485065e-12</v>
+        <v>4.776710532518069e-12</v>
       </c>
     </row>
     <row r="22">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="F22">
-        <v>-1.165828650965211</v>
+        <v>-1.10134415516501</v>
       </c>
       <c r="G22">
-        <v>-0.3205263057939058</v>
+        <v>-0.3850108015941075</v>
       </c>
       <c r="H22">
         <v>-5.474248485136082</v>
       </c>
       <c r="I22">
-        <v>2.630129833924855e-07</v>
+        <v>2.636233114310622e-07</v>
       </c>
     </row>
     <row r="23">
@@ -7580,16 +7580,16 @@
         </is>
       </c>
       <c r="F23">
-        <v>-0.7273840290676317</v>
+        <v>-0.6700348712671431</v>
       </c>
       <c r="G23">
-        <v>0.02438392663685779</v>
+        <v>-0.03296523116363087</v>
       </c>
       <c r="H23">
         <v>-2.91129103749401</v>
       </c>
       <c r="I23">
-        <v>0.01887587201234597</v>
+        <v>0.02159631457679614</v>
       </c>
     </row>
     <row r="24">
@@ -7615,16 +7615,16 @@
         </is>
       </c>
       <c r="F24">
-        <v>-0.5967669639548765</v>
+        <v>-0.5345737327458205</v>
       </c>
       <c r="G24">
-        <v>0.2185000788035137</v>
+        <v>0.1563068475944577</v>
       </c>
       <c r="H24">
         <v>-1.444483155937675</v>
       </c>
       <c r="I24">
-        <v>0.4714926234518282</v>
+        <v>0.8916186869073649</v>
       </c>
     </row>
     <row r="25">
@@ -7650,16 +7650,16 @@
         </is>
       </c>
       <c r="F25">
-        <v>-0.2268765643628495</v>
+        <v>-0.1674891749911716</v>
       </c>
       <c r="G25">
-        <v>0.5516097816422606</v>
+        <v>0.4922223922705826</v>
       </c>
       <c r="H25">
         <v>1.298642944799218</v>
       </c>
       <c r="I25">
-        <v>0.563764820800657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -7685,16 +7685,16 @@
         </is>
       </c>
       <c r="F26">
-        <v>-0.721254418171725</v>
+        <v>-0.6557442551132115</v>
       </c>
       <c r="G26">
-        <v>0.1374930028749154</v>
+        <v>0.07198283981640191</v>
       </c>
       <c r="H26">
         <v>-2.116332909153054</v>
       </c>
       <c r="I26">
-        <v>0.1478364952361864</v>
+        <v>0.2058990222895545</v>
       </c>
     </row>
     <row r="27">
@@ -7720,16 +7720,16 @@
         </is>
       </c>
       <c r="F27">
-        <v>-1.098538153923191</v>
+        <v>-1.032982952712174</v>
       </c>
       <c r="G27">
-        <v>-0.2392003451335634</v>
+        <v>-0.3047555463445801</v>
       </c>
       <c r="H27">
         <v>-4.846423375838778</v>
       </c>
       <c r="I27">
-        <v>7.485933274820056e-06</v>
+        <v>7.542426412416082e-06</v>
       </c>
     </row>
     <row r="28">
@@ -7755,16 +7755,16 @@
         </is>
       </c>
       <c r="F28">
-        <v>-1.348578219983351</v>
+        <v>-1.281584082465844</v>
       </c>
       <c r="G28">
-        <v>-0.4703779510110855</v>
+        <v>-0.537372088528593</v>
       </c>
       <c r="H28">
         <v>-6.448262574851913</v>
       </c>
       <c r="I28">
-        <v>6.786687878346243e-10</v>
+        <v>6.788377704632027e-10</v>
       </c>
     </row>
     <row r="29">
@@ -7790,16 +7790,16 @@
         </is>
       </c>
       <c r="F29">
-        <v>-0.80234408150396</v>
+        <v>-0.7374469765446287</v>
       </c>
       <c r="G29">
-        <v>0.04836699774401559</v>
+        <v>-0.01653010721531567</v>
       </c>
       <c r="H29">
         <v>-2.759243970965822</v>
       </c>
       <c r="I29">
-        <v>0.02956907858548585</v>
+        <v>0.03476115881672677</v>
       </c>
     </row>
     <row r="30">
@@ -7825,16 +7825,16 @@
         </is>
       </c>
       <c r="F30">
-        <v>-1.052269764315433</v>
+        <v>-0.9859511746659744</v>
       </c>
       <c r="G30">
-        <v>-0.1829249913821939</v>
+        <v>-0.2492435810316524</v>
       </c>
       <c r="H30">
         <v>-4.42341245907823</v>
       </c>
       <c r="I30">
-        <v>5.739552141148518e-05</v>
+        <v>5.829240513972166e-05</v>
       </c>
     </row>
     <row r="31">
@@ -7860,16 +7860,16 @@
         </is>
       </c>
       <c r="F31">
-        <v>-0.6739613377244494</v>
+        <v>-0.6078441247790547</v>
       </c>
       <c r="G31">
-        <v>0.192743665786767</v>
+        <v>0.1266264528413722</v>
       </c>
       <c r="H31">
         <v>-1.728559402921725</v>
       </c>
       <c r="I31">
-        <v>0.3087411764045049</v>
+        <v>0.5033278846117314</v>
       </c>
     </row>
     <row r="32">
@@ -7895,16 +7895,16 @@
         </is>
       </c>
       <c r="F32">
-        <v>-0.6462304893146702</v>
+        <v>-0.5781102045312034</v>
       </c>
       <c r="G32">
-        <v>0.2467320091378884</v>
+        <v>0.1786117243544217</v>
       </c>
       <c r="H32">
         <v>-1.392823084460402</v>
       </c>
       <c r="I32">
-        <v>0.5038191869771487</v>
+        <v>0.9820397755939686</v>
       </c>
     </row>
     <row r="33">
@@ -7930,16 +7930,16 @@
         </is>
       </c>
       <c r="F33">
-        <v>-0.9783906495147066</v>
+        <v>-0.909304003053393</v>
       </c>
       <c r="G33">
-        <v>-0.07276048913146327</v>
+        <v>-0.1418471355927768</v>
       </c>
       <c r="H33">
         <v>-3.613502275681882</v>
       </c>
       <c r="I33">
-        <v>0.001718262349600153</v>
+        <v>0.001812532216693901</v>
       </c>
     </row>
     <row r="34">
@@ -7965,16 +7965,16 @@
         </is>
       </c>
       <c r="F34">
-        <v>-1.860926099357269</v>
+        <v>-1.793325414244577</v>
       </c>
       <c r="G34">
-        <v>-0.9747748322682455</v>
+        <v>-1.042375517380937</v>
       </c>
       <c r="H34">
         <v>-9.962460397839692</v>
       </c>
       <c r="I34">
-        <v>3.33066907387547e-14</v>
+        <v>1.334923528204549e-22</v>
       </c>
     </row>
     <row r="35">
@@ -8000,16 +8000,16 @@
         </is>
       </c>
       <c r="F35">
-        <v>-0.7793414467155807</v>
+        <v>-0.7101479945606655</v>
       </c>
       <c r="G35">
-        <v>0.1276887882461926</v>
+        <v>0.05849533609127727</v>
       </c>
       <c r="H35">
         <v>-2.236703679623579</v>
       </c>
       <c r="I35">
-        <v>0.1134171657523505</v>
+        <v>0.1518342801501182</v>
       </c>
     </row>
     <row r="36">
@@ -8035,16 +8035,16 @@
         </is>
       </c>
       <c r="F36">
-        <v>-1.661865390287247</v>
+        <v>-1.594159655009213</v>
       </c>
       <c r="G36">
-        <v>-0.7743370611614857</v>
+        <v>-0.8420427964395202</v>
       </c>
       <c r="H36">
         <v>-8.545651867742226</v>
       </c>
       <c r="I36">
-        <v>3.708144902248023e-14</v>
+        <v>7.668765815482426e-17</v>
       </c>
     </row>
     <row r="37">
@@ -8070,16 +8070,16 @@
         </is>
       </c>
       <c r="F37">
-        <v>-1.341805597667118</v>
+        <v>-1.27322005362426</v>
       </c>
       <c r="G37">
-        <v>-0.442744195312227</v>
+        <v>-0.5113297393550846</v>
       </c>
       <c r="H37">
         <v>-6.179500359871767</v>
       </c>
       <c r="I37">
-        <v>3.856256092227284e-09</v>
+        <v>3.858287256611666e-09</v>
       </c>
     </row>
   </sheetData>
@@ -8170,10 +8170,10 @@
         </is>
       </c>
       <c r="F2">
-        <v>3.620848994338413</v>
+        <v>3.613338346016657</v>
       </c>
       <c r="G2">
-        <v>4.240640028972063</v>
+        <v>4.248150677293819</v>
       </c>
       <c r="H2">
         <v>3.676786548341896</v>
@@ -8182,7 +8182,7 @@
         <v>2.110880368441482</v>
       </c>
       <c r="J2">
-        <v>0.03478259588078539</v>
+        <v>0.2086955752847123</v>
       </c>
     </row>
     <row r="3">
@@ -8208,10 +8208,10 @@
         </is>
       </c>
       <c r="F3">
-        <v>3.634296779694588</v>
+        <v>3.626823429713781</v>
       </c>
       <c r="G3">
-        <v>4.251009893976182</v>
+        <v>4.25848324395699</v>
       </c>
       <c r="H3">
         <v>3.676786548341896</v>
@@ -8220,7 +8220,7 @@
         <v>2.220894768679337</v>
       </c>
       <c r="J3">
-        <v>0.02635808964381776</v>
+        <v>0.1581485378629066</v>
       </c>
     </row>
     <row r="4">
@@ -8246,10 +8246,10 @@
         </is>
       </c>
       <c r="F4">
-        <v>3.100876197891631</v>
+        <v>3.092936957908035</v>
       </c>
       <c r="G4">
-        <v>3.756035320358296</v>
+        <v>3.763974560341892</v>
       </c>
       <c r="H4">
         <v>3.676786548341896</v>
@@ -8258,7 +8258,7 @@
         <v>-1.952678981039287</v>
       </c>
       <c r="J4">
-        <v>0.05085764582789975</v>
+        <v>0.3051458749673985</v>
       </c>
     </row>
     <row r="5">
@@ -8284,10 +8284,10 @@
         </is>
       </c>
       <c r="F5">
-        <v>3.108009358920145</v>
+        <v>3.100132824668026</v>
       </c>
       <c r="G5">
-        <v>3.757993901440516</v>
+        <v>3.765870435692635</v>
       </c>
       <c r="H5">
         <v>3.676786548341896</v>
@@ -8296,7 +8296,7 @@
         <v>-1.932194675057677</v>
       </c>
       <c r="J5">
-        <v>0.05333548218917965</v>
+        <v>0.3200128931350779</v>
       </c>
     </row>
     <row r="6">
@@ -8322,10 +8322,10 @@
         </is>
       </c>
       <c r="F6">
-        <v>2.775777258485019</v>
+        <v>2.767682961686696</v>
       </c>
       <c r="G6">
-        <v>3.443731923960755</v>
+        <v>3.451826220759078</v>
       </c>
       <c r="H6">
         <v>3.676786548341896</v>
@@ -8334,7 +8334,7 @@
         <v>-4.373283417836639</v>
       </c>
       <c r="J6">
-        <v>1.223916631439371e-05</v>
+        <v>7.343499788636226e-05</v>
       </c>
     </row>
     <row r="7">
@@ -8360,10 +8360,10 @@
         </is>
       </c>
       <c r="F7">
-        <v>2.395009599272879</v>
+        <v>2.386791983655772</v>
       </c>
       <c r="G7">
-        <v>3.07314073620741</v>
+        <v>3.081358351824516</v>
       </c>
       <c r="H7">
         <v>3.676786548341896</v>
@@ -8372,7 +8372,7 @@
         <v>-7.161634281888061</v>
       </c>
       <c r="J7">
-        <v>7.972086969858175e-13</v>
+        <v>4.783252181914905e-12</v>
       </c>
     </row>
     <row r="8">
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="F8">
-        <v>3.697592026599773</v>
+        <v>3.690386522924568</v>
       </c>
       <c r="G8">
-        <v>4.292202023845372</v>
+        <v>4.299407527520577</v>
       </c>
       <c r="H8">
         <v>3.676786548341896</v>
@@ -8410,7 +8410,7 @@
         <v>2.756086483277596</v>
       </c>
       <c r="J8">
-        <v>0.005849752768025467</v>
+        <v>0.0350985166081528</v>
       </c>
     </row>
     <row r="9">
@@ -8436,10 +8436,10 @@
         </is>
       </c>
       <c r="F9">
-        <v>3.813368153425787</v>
+        <v>3.806361092446521</v>
       </c>
       <c r="G9">
-        <v>4.391602333489862</v>
+        <v>4.398609394469128</v>
       </c>
       <c r="H9">
         <v>3.676786548341896</v>
@@ -8448,7 +8448,7 @@
         <v>3.792675048163456</v>
       </c>
       <c r="J9">
-        <v>0.0001490331239648837</v>
+        <v>0.000894198743789302</v>
       </c>
     </row>
     <row r="10">
@@ -8474,10 +8474,10 @@
         </is>
       </c>
       <c r="F10">
-        <v>3.467551243884892</v>
+        <v>3.460001748108437</v>
       </c>
       <c r="G10">
-        <v>4.090548034281471</v>
+        <v>4.098097530057927</v>
       </c>
       <c r="H10">
         <v>3.676786548341896</v>
@@ -8486,7 +8486,7 @@
         <v>0.8456296079316989</v>
       </c>
       <c r="J10">
-        <v>0.3977594031273129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -8512,10 +8512,10 @@
         </is>
       </c>
       <c r="F11">
-        <v>3.68739937708889</v>
+        <v>3.680137129747276</v>
       </c>
       <c r="G11">
-        <v>4.286691954879525</v>
+        <v>4.293954202221139</v>
       </c>
       <c r="H11">
         <v>3.676786548341896</v>
@@ -8524,7 +8524,7 @@
         <v>2.667059651773243</v>
       </c>
       <c r="J11">
-        <v>0.007651808921447254</v>
+        <v>0.04591085352868352</v>
       </c>
     </row>
     <row r="12">
@@ -8550,10 +8550,10 @@
         </is>
       </c>
       <c r="F12">
-        <v>3.073562185315753</v>
+        <v>3.065610983565326</v>
       </c>
       <c r="G12">
-        <v>3.729708412426831</v>
+        <v>3.737659614177259</v>
       </c>
       <c r="H12">
         <v>3.676786548341896</v>
@@ -8562,7 +8562,7 @@
         <v>-2.160319215474184</v>
       </c>
       <c r="J12">
-        <v>0.03074796643084412</v>
+        <v>0.1844877985850647</v>
       </c>
     </row>
     <row r="13">
@@ -8588,10 +8588,10 @@
         </is>
       </c>
       <c r="F13">
-        <v>2.59295908082841</v>
+        <v>2.584697846144073</v>
       </c>
       <c r="G13">
-        <v>3.27468973482866</v>
+        <v>3.282950969512997</v>
       </c>
       <c r="H13">
         <v>3.676786548341896</v>
@@ -8600,7 +8600,7 @@
         <v>-5.614368788413116</v>
       </c>
       <c r="J13">
-        <v>1.972810612424917e-08</v>
+        <v>1.18368636745495e-07</v>
       </c>
     </row>
     <row r="14">
@@ -8626,10 +8626,10 @@
         </is>
       </c>
       <c r="F14">
-        <v>3.878564839271694</v>
+        <v>3.871496754235569</v>
       </c>
       <c r="G14">
-        <v>4.461834824730706</v>
+        <v>4.468902909766831</v>
       </c>
       <c r="H14">
         <v>3.676786548341896</v>
@@ -8638,7 +8638,7 @@
         <v>4.35801061770642</v>
       </c>
       <c r="J14">
-        <v>1.312500179734793e-05</v>
+        <v>7.875001078408759e-05</v>
       </c>
     </row>
     <row r="15">
@@ -8664,10 +8664,10 @@
         </is>
       </c>
       <c r="F15">
-        <v>3.861178447109625</v>
+        <v>3.854143883159068</v>
       </c>
       <c r="G15">
-        <v>4.44168221753411</v>
+        <v>4.448716781484666</v>
       </c>
       <c r="H15">
         <v>3.676786548341896</v>
@@ -8676,7 +8676,7 @@
         <v>4.212208188170536</v>
       </c>
       <c r="J15">
-        <v>2.528863013458488e-05</v>
+        <v>0.0001517317808075093</v>
       </c>
     </row>
     <row r="16">
@@ -8702,10 +8702,10 @@
         </is>
       </c>
       <c r="F16">
-        <v>3.735779554665523</v>
+        <v>3.728536145316986</v>
       </c>
       <c r="G16">
-        <v>4.333517590328867</v>
+        <v>4.340760999677404</v>
       </c>
       <c r="H16">
         <v>3.676786548341896</v>
@@ -8714,7 +8714,7 @@
         <v>3.084265793538064</v>
       </c>
       <c r="J16">
-        <v>0.002040552029968807</v>
+        <v>0.01224331217981284</v>
       </c>
     </row>
     <row r="17">
@@ -8740,10 +8740,10 @@
         </is>
       </c>
       <c r="F17">
-        <v>4.075621179118803</v>
+        <v>4.069248922566715</v>
       </c>
       <c r="G17">
-        <v>4.601470255280386</v>
+        <v>4.607842511832475</v>
       </c>
       <c r="H17">
         <v>3.676786548341896</v>
@@ -8752,7 +8752,7 @@
         <v>6.483147870025133</v>
       </c>
       <c r="J17">
-        <v>8.982837945562506e-11</v>
+        <v>5.389702767337503e-10</v>
       </c>
     </row>
     <row r="18">
@@ -8778,10 +8778,10 @@
         </is>
       </c>
       <c r="F18">
-        <v>3.458128187498303</v>
+        <v>3.450360633578594</v>
       </c>
       <c r="G18">
-        <v>4.099119494004226</v>
+        <v>4.106887047923935</v>
       </c>
       <c r="H18">
         <v>3.676786548341896</v>
@@ -8790,7 +8790,7 @@
         <v>0.8184681424527414</v>
       </c>
       <c r="J18">
-        <v>0.4130899257209493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -8816,10 +8816,10 @@
         </is>
       </c>
       <c r="F19">
-        <v>2.914446336582965</v>
+        <v>2.906079939825831</v>
       </c>
       <c r="G19">
-        <v>3.604855137543493</v>
+        <v>3.613221534300627</v>
       </c>
       <c r="H19">
         <v>3.676786548341896</v>
@@ -8828,7 +8828,7 @@
         <v>-3.112563584810576</v>
       </c>
       <c r="J19">
-        <v>0.001854700560037415</v>
+        <v>0.01112820336022449</v>
       </c>
     </row>
     <row r="20">
@@ -8854,10 +8854,10 @@
         </is>
       </c>
       <c r="F20">
-        <v>3.319533623090911</v>
+        <v>3.311325307792149</v>
       </c>
       <c r="G20">
-        <v>3.996897282481307</v>
+        <v>4.00510559778007</v>
       </c>
       <c r="H20">
         <v>3.676786548341896</v>
@@ -8866,7 +8866,7 @@
         <v>-0.1412416254354522</v>
       </c>
       <c r="J20">
-        <v>0.8876790633193066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -8892,10 +8892,10 @@
         </is>
       </c>
       <c r="F21">
-        <v>3.353348808753836</v>
+        <v>3.345249539208652</v>
       </c>
       <c r="G21">
-        <v>4.021713833467507</v>
+        <v>4.029813103012691</v>
       </c>
       <c r="H21">
         <v>3.676786548341896</v>
@@ -8904,7 +8904,7 @@
         <v>0.08281911690290185</v>
       </c>
       <c r="J21">
-        <v>0.933995368256283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -8930,10 +8930,10 @@
         </is>
       </c>
       <c r="F22">
-        <v>3.825585010197067</v>
+        <v>3.818135526990051</v>
       </c>
       <c r="G22">
-        <v>4.440328599107753</v>
+        <v>4.447778082314769</v>
       </c>
       <c r="H22">
         <v>3.676786548341896</v>
@@ -8942,7 +8942,7 @@
         <v>3.822786393573101</v>
       </c>
       <c r="J22">
-        <v>0.000131952081448854</v>
+        <v>0.0007917124886931244</v>
       </c>
     </row>
     <row r="23">
@@ -8968,10 +8968,10 @@
         </is>
       </c>
       <c r="F23">
-        <v>3.872223732761673</v>
+        <v>3.864857050103938</v>
       </c>
       <c r="G23">
-        <v>4.480134484358106</v>
+        <v>4.487501167015841</v>
       </c>
       <c r="H23">
         <v>3.676786548341896</v>
@@ -8980,7 +8980,7 @@
         <v>4.232035663806681</v>
       </c>
       <c r="J23">
-        <v>2.31585675068676e-05</v>
+        <v>0.0001389514050412056</v>
       </c>
     </row>
     <row r="24">
@@ -9006,10 +9006,10 @@
         </is>
       </c>
       <c r="F24">
-        <v>3.6988926600166</v>
+        <v>3.691128878114631</v>
       </c>
       <c r="G24">
-        <v>4.339572693423611</v>
+        <v>4.347336475325579</v>
       </c>
       <c r="H24">
         <v>3.676786548341896</v>
@@ -9018,7 +9018,7 @@
         <v>2.753582838137522</v>
       </c>
       <c r="J24">
-        <v>0.005894685043618248</v>
+        <v>0.03536811026170949</v>
       </c>
     </row>
     <row r="25">
@@ -9044,10 +9044,10 @@
         </is>
       </c>
       <c r="F25">
-        <v>3.840525708367475</v>
+        <v>3.832978599116786</v>
       </c>
       <c r="G25">
-        <v>4.463325558738327</v>
+        <v>4.470872667989016</v>
       </c>
       <c r="H25">
         <v>3.676786548341896</v>
@@ -9056,7 +9056,7 @@
         <v>3.930242366690217</v>
       </c>
       <c r="J25">
-        <v>8.486027833218412e-05</v>
+        <v>0.0005091616699931048</v>
       </c>
     </row>
   </sheetData>
@@ -9142,16 +9142,16 @@
         </is>
       </c>
       <c r="F2">
-        <v>-0.4552185514275402</v>
+        <v>-0.3987408422359416</v>
       </c>
       <c r="G2">
-        <v>0.4314009010672456</v>
+        <v>0.374923191875647</v>
       </c>
       <c r="H2">
         <v>-0.09036164485462705</v>
       </c>
       <c r="I2">
-        <v>0.999999160246006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -9177,16 +9177,16 @@
         </is>
       </c>
       <c r="F3">
-        <v>0.0494640389308631</v>
+        <v>0.1071539585857375</v>
       </c>
       <c r="G3">
-        <v>0.9551134661296856</v>
+        <v>0.8974235464748113</v>
       </c>
       <c r="H3">
         <v>3.731176556047665</v>
       </c>
       <c r="I3">
-        <v>0.002622540897259662</v>
+        <v>0.002858813869285677</v>
       </c>
     </row>
     <row r="4">
@@ -9212,16 +9212,16 @@
         </is>
       </c>
       <c r="F4">
-        <v>0.0479199937306779</v>
+        <v>0.105227480432574</v>
       </c>
       <c r="G4">
-        <v>0.947565769219137</v>
+        <v>0.8902582825172409</v>
       </c>
       <c r="H4">
         <v>3.722082337298564</v>
       </c>
       <c r="I4">
-        <v>0.002715803113447768</v>
+        <v>0.002963798496448703</v>
       </c>
     </row>
     <row r="5">
@@ -9247,16 +9247,16 @@
         </is>
       </c>
       <c r="F5">
-        <v>0.36283537151278</v>
+        <v>0.4212043127893976</v>
       </c>
       <c r="G5">
-        <v>1.279144469351921</v>
+        <v>1.220775528075303</v>
       </c>
       <c r="H5">
         <v>6.027653653180306</v>
       </c>
       <c r="I5">
-        <v>2.491689166106426e-08</v>
+        <v>2.495356036041505e-08</v>
       </c>
     </row>
     <row r="6">
@@ -9282,16 +9282,16 @@
         </is>
       </c>
       <c r="F6">
-        <v>0.731671074273552</v>
+        <v>0.7909119063430829</v>
       </c>
       <c r="G6">
-        <v>1.661667613556636</v>
+        <v>1.602426781487105</v>
       </c>
       <c r="H6">
         <v>8.656559060720321</v>
       </c>
       <c r="I6">
-        <v>5.073719222536965e-14</v>
+        <v>7.293287543575055e-17</v>
       </c>
     </row>
     <row r="7">
@@ -9317,16 +9317,16 @@
         </is>
       </c>
       <c r="F7">
-        <v>0.06230299371334663</v>
+        <v>0.1198744147518339</v>
       </c>
       <c r="G7">
-        <v>0.9660921617074969</v>
+        <v>0.9085207406690096</v>
       </c>
       <c r="H7">
         <v>3.827501396733018</v>
       </c>
       <c r="I7">
-        <v>0.001801219638216667</v>
+        <v>0.001941759746893566</v>
       </c>
     </row>
     <row r="8">
@@ -9352,16 +9352,16 @@
         </is>
       </c>
       <c r="F8">
-        <v>0.0609336246133716</v>
+        <v>0.1181003589439858</v>
       </c>
       <c r="G8">
-        <v>0.9583697886967379</v>
+        <v>0.9012030543661238</v>
       </c>
       <c r="H8">
         <v>3.820519141169687</v>
       </c>
       <c r="I8">
-        <v>0.001851573499994208</v>
+        <v>0.001997566034423118</v>
       </c>
     </row>
     <row r="9">
@@ -9387,16 +9387,16 @@
         </is>
       </c>
       <c r="F9">
-        <v>0.3758675753530114</v>
+        <v>0.4340933980614592</v>
       </c>
       <c r="G9">
-        <v>1.289929915871984</v>
+        <v>1.231704093163537</v>
       </c>
       <c r="H9">
         <v>6.130118291427062</v>
       </c>
       <c r="I9">
-        <v>1.31565576211301e-08</v>
+        <v>1.317206362845042e-08</v>
       </c>
     </row>
     <row r="10">
@@ -9422,16 +9422,16 @@
         </is>
       </c>
       <c r="F10">
-        <v>0.7442745555716789</v>
+        <v>0.8034268883733242</v>
       </c>
       <c r="G10">
-        <v>1.672881782618803</v>
+        <v>1.613729449817158</v>
       </c>
       <c r="H10">
         <v>8.755786218153617</v>
       </c>
       <c r="I10">
-        <v>4.718447854656915e-14</v>
+        <v>3.040283674362638e-17</v>
       </c>
     </row>
     <row r="11">
@@ -9457,16 +9457,16 @@
         </is>
       </c>
       <c r="F11">
-        <v>-0.4604044835953098</v>
+        <v>-0.4023280448727612</v>
       </c>
       <c r="G11">
-        <v>0.4513127414845758</v>
+        <v>0.3932363027620273</v>
       </c>
       <c r="H11">
         <v>-0.03354358034499277</v>
       </c>
       <c r="I11">
-        <v>0.999999994057404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -9492,16 +9492,16 @@
         </is>
       </c>
       <c r="F12">
-        <v>-0.1449632529935742</v>
+        <v>-0.08589235340491563</v>
       </c>
       <c r="G12">
-        <v>0.7823655887977266</v>
+        <v>0.7232946892090679</v>
       </c>
       <c r="H12">
         <v>2.312077305962553</v>
       </c>
       <c r="I12">
-        <v>0.1890224486465455</v>
+        <v>0.3116013529420517</v>
       </c>
     </row>
     <row r="13">
@@ -9527,16 +9527,16 @@
         </is>
       </c>
       <c r="F13">
-        <v>0.2236927578507995</v>
+        <v>0.2836584410028151</v>
       </c>
       <c r="G13">
-        <v>1.165068424918839</v>
+        <v>1.105102741766824</v>
       </c>
       <c r="H13">
         <v>4.962346299386172</v>
       </c>
       <c r="I13">
-        <v>1.032271248924133e-05</v>
+        <v>1.044700137984728e-05</v>
       </c>
     </row>
     <row r="14">
@@ -9562,16 +9562,16 @@
         </is>
       </c>
       <c r="F14">
-        <v>-0.1375835100101272</v>
+        <v>-0.07887364602516528</v>
       </c>
       <c r="G14">
-        <v>0.7840775879250135</v>
+        <v>0.7253677239400516</v>
       </c>
       <c r="H14">
         <v>2.35947707365926</v>
       </c>
       <c r="I14">
-        <v>0.1707107613221732</v>
+        <v>0.2745106746190492</v>
       </c>
     </row>
     <row r="15">
@@ -9597,16 +9597,16 @@
         </is>
       </c>
       <c r="F15">
-        <v>0.2309369892879171</v>
+        <v>0.2905589010225431</v>
       </c>
       <c r="G15">
-        <v>1.166915935592456</v>
+        <v>1.10729402385783</v>
       </c>
       <c r="H15">
         <v>5.023632568193225</v>
       </c>
       <c r="I15">
-        <v>7.524423656146695e-06</v>
+        <v>7.605479653364365e-06</v>
       </c>
     </row>
     <row r="16">
@@ -9632,16 +9632,16 @@
         </is>
       </c>
       <c r="F16">
-        <v>-0.09906011162749739</v>
+        <v>-0.03857824123706954</v>
       </c>
       <c r="G16">
-        <v>0.850418958592984</v>
+        <v>0.7899370882025561</v>
       </c>
       <c r="H16">
         <v>2.661855502460083</v>
       </c>
       <c r="I16">
-        <v>0.0830431754394334</v>
+        <v>0.1165668461445416</v>
       </c>
     </row>
     <row r="17">
@@ -9667,16 +9667,16 @@
         </is>
       </c>
       <c r="F17">
-        <v>-0.5235529303143933</v>
+        <v>-0.4705589790161934</v>
       </c>
       <c r="G17">
-        <v>0.3083764938438884</v>
+        <v>0.2553825425456884</v>
       </c>
       <c r="H17">
         <v>-0.8700229195899739</v>
       </c>
       <c r="I17">
-        <v>0.9536533396226521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -9702,16 +9702,16 @@
         </is>
       </c>
       <c r="F18">
-        <v>-0.2133051738117774</v>
+        <v>-0.1586310892052372</v>
       </c>
       <c r="G18">
-        <v>0.6449999460905582</v>
+        <v>0.5903258614840181</v>
       </c>
       <c r="H18">
         <v>1.69183324240346</v>
       </c>
       <c r="I18">
-        <v>0.5371743089670954</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -9737,16 +9737,16 @@
         </is>
       </c>
       <c r="F19">
-        <v>-0.4147925368154823</v>
+        <v>-0.3609476567245535</v>
       </c>
       <c r="G19">
-        <v>0.4304952552922111</v>
+        <v>0.3766503752012823</v>
       </c>
       <c r="H19">
         <v>0.06248743751704045</v>
       </c>
       <c r="I19">
-        <v>0.9999998668863668</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -9772,16 +9772,16 @@
         </is>
       </c>
       <c r="F20">
-        <v>0.1515810517265835</v>
+        <v>0.2078512195574644</v>
       </c>
       <c r="G20">
-        <v>1.034942400975976</v>
+        <v>0.9786722331450952</v>
       </c>
       <c r="H20">
         <v>4.518147464559894</v>
       </c>
       <c r="I20">
-        <v>9.119546578539861e-05</v>
+        <v>9.35745494232303e-05</v>
       </c>
     </row>
     <row r="21">
@@ -9807,16 +9807,16 @@
         </is>
       </c>
       <c r="F21">
-        <v>0.6060897686224012</v>
+        <v>0.664054634941958</v>
       </c>
       <c r="G21">
-        <v>1.516055466165673</v>
+        <v>1.458090599846116</v>
       </c>
       <c r="H21">
         <v>7.844631529706351</v>
       </c>
       <c r="I21">
-        <v>1.538769112130467e-13</v>
+        <v>6.513398511913258e-14</v>
       </c>
     </row>
     <row r="22">
@@ -9842,16 +9842,16 @@
         </is>
       </c>
       <c r="F22">
-        <v>-0.1018682451321977</v>
+        <v>-0.04768448667094061</v>
       </c>
       <c r="G22">
-        <v>0.7487394538814836</v>
+        <v>0.6945556954202264</v>
       </c>
       <c r="H22">
         <v>2.558061492974866</v>
       </c>
       <c r="I22">
-        <v>0.1078012617428139</v>
+        <v>0.1578862162175949</v>
       </c>
     </row>
     <row r="23">
@@ -9877,16 +9877,16 @@
         </is>
       </c>
       <c r="F23">
-        <v>-0.3029904851595562</v>
+        <v>-0.2496824479223342</v>
       </c>
       <c r="G23">
-        <v>0.5338696401067898</v>
+        <v>0.4805616028695679</v>
       </c>
       <c r="H23">
         <v>0.9280135486740605</v>
       </c>
       <c r="I23">
-        <v>0.9394115917347521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -9912,16 +9912,16 @@
         </is>
       </c>
       <c r="F24">
-        <v>0.2623827635168388</v>
+        <v>0.3182435319058783</v>
       </c>
       <c r="G24">
-        <v>1.139317125656226</v>
+        <v>1.083456357267186</v>
       </c>
       <c r="H24">
         <v>5.376633315403041</v>
       </c>
       <c r="I24">
-        <v>1.132091131283985e-06</v>
+        <v>1.138372667926819e-06</v>
       </c>
     </row>
     <row r="25">
@@ -9947,16 +9947,16 @@
         </is>
       </c>
       <c r="F25">
-        <v>0.7167323786880708</v>
+        <v>0.7743081151434676</v>
       </c>
       <c r="G25">
-        <v>1.620589292570508</v>
+        <v>1.563013556115112</v>
       </c>
       <c r="H25">
         <v>8.69843793596382</v>
       </c>
       <c r="I25">
-        <v>4.89608353859694e-14</v>
+        <v>5.047256347558301e-17</v>
       </c>
     </row>
     <row r="26">
@@ -9982,16 +9982,16 @@
         </is>
       </c>
       <c r="F26">
-        <v>-0.6391488765497044</v>
+        <v>-0.5842199548097875</v>
       </c>
       <c r="G26">
-        <v>0.2231568227476523</v>
+        <v>0.1682279010077353</v>
       </c>
       <c r="H26">
         <v>-1.6227299286353</v>
       </c>
       <c r="I26">
-        <v>0.5833780669334527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -10017,16 +10017,16 @@
         </is>
       </c>
       <c r="F27">
-        <v>-0.07144132578707435</v>
+        <v>-0.01425706324476378</v>
       </c>
       <c r="G27">
-        <v>0.8262700062108532</v>
+        <v>0.7690857436685425</v>
       </c>
       <c r="H27">
         <v>2.828356528344853</v>
       </c>
       <c r="I27">
-        <v>0.05308658025255375</v>
+        <v>0.07018150144962124</v>
       </c>
     </row>
     <row r="28">
@@ -10052,16 +10052,16 @@
         </is>
       </c>
       <c r="F28">
-        <v>0.3835507045445579</v>
+        <v>0.4423680913892361</v>
       </c>
       <c r="G28">
-        <v>1.306899757964735</v>
+        <v>1.248082371120057</v>
       </c>
       <c r="H28">
         <v>6.158273999264889</v>
       </c>
       <c r="I28">
-        <v>1.101909774536836e-08</v>
+        <v>1.103130566911118e-08</v>
       </c>
     </row>
     <row r="29">
@@ -10087,16 +10087,16 @@
         </is>
       </c>
       <c r="F29">
-        <v>0.1415281290536943</v>
+        <v>0.1980787763147795</v>
       </c>
       <c r="G29">
-        <v>1.029292605172137</v>
+        <v>0.9727419579110514</v>
       </c>
       <c r="H29">
         <v>4.4362407803561</v>
       </c>
       <c r="I29">
-        <v>0.0001333286390151622</v>
+        <v>0.0001373151765219842</v>
       </c>
     </row>
     <row r="30">
@@ -10122,16 +10122,16 @@
         </is>
       </c>
       <c r="F30">
-        <v>0.5961102472242388</v>
+        <v>0.6543462416433099</v>
       </c>
       <c r="G30">
-        <v>1.510332269087107</v>
+        <v>1.452096274668036</v>
       </c>
       <c r="H30">
         <v>7.750333687399139</v>
       </c>
       <c r="I30">
-        <v>1.723066134218243e-13</v>
+        <v>1.374770772536034e-13</v>
       </c>
     </row>
     <row r="31">
@@ -10157,16 +10157,16 @@
         </is>
       </c>
       <c r="F31">
-        <v>-0.00388255774048607</v>
+        <v>0.05621124090785534</v>
       </c>
       <c r="G31">
-        <v>0.9395043398260006</v>
+        <v>0.8794105411776592</v>
       </c>
       <c r="H31">
         <v>3.336053076013843</v>
       </c>
       <c r="I31">
-        <v>0.01099277160766221</v>
+        <v>0.01274654078170449</v>
       </c>
     </row>
     <row r="32">
@@ -10192,16 +10192,16 @@
         </is>
       </c>
       <c r="F32">
-        <v>-0.403785148840209</v>
+        <v>-0.3499516388952303</v>
       </c>
       <c r="G32">
-        <v>0.4413241481988737</v>
+        <v>0.387490638253895</v>
       </c>
       <c r="H32">
         <v>0.1494143397979589</v>
       </c>
       <c r="I32">
-        <v>0.9999897013535826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -10227,16 +10227,16 @@
         </is>
       </c>
       <c r="F33">
-        <v>-0.2911861935548656</v>
+        <v>-0.2368197938391678</v>
       </c>
       <c r="G33">
-        <v>0.562288712562875</v>
+        <v>0.5079223128471774</v>
       </c>
       <c r="H33">
         <v>1.068477211985905</v>
       </c>
       <c r="I33">
-        <v>0.8939588718545382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -10262,16 +10262,16 @@
         </is>
       </c>
       <c r="F34">
-        <v>-0.5733083726885274</v>
+        <v>-0.5217161060455653</v>
       </c>
       <c r="G34">
-        <v>0.2366166022917372</v>
+        <v>0.1850243356487751</v>
       </c>
       <c r="H34">
         <v>-1.398331618424438</v>
       </c>
       <c r="I34">
-        <v>0.7281295296828439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -10297,16 +10297,16 @@
         </is>
       </c>
       <c r="F35">
-        <v>-0.05219503140277476</v>
+        <v>0.004341447002960241</v>
       </c>
       <c r="G35">
-        <v>0.8353470139026451</v>
+        <v>0.7788105354969102</v>
       </c>
       <c r="H35">
         <v>2.968107206894009</v>
       </c>
       <c r="I35">
-        <v>0.03550043845065698</v>
+        <v>0.04494597018191934</v>
       </c>
     </row>
     <row r="36">
@@ -10332,16 +10332,16 @@
         </is>
       </c>
       <c r="F36">
-        <v>0.4448307565242964</v>
+        <v>0.5041633254367219</v>
       </c>
       <c r="G36">
-        <v>1.376267433351645</v>
+        <v>1.316934864439219</v>
       </c>
       <c r="H36">
         <v>6.576616162320563</v>
       </c>
       <c r="I36">
-        <v>7.216380826235991e-10</v>
+        <v>7.219125557780199e-10</v>
       </c>
     </row>
     <row r="37">
@@ -10367,16 +10367,16 @@
         </is>
       </c>
       <c r="F37">
-        <v>-0.3069926345618142</v>
+        <v>-0.2530037288556279</v>
       </c>
       <c r="G37">
-        <v>0.5405561542111591</v>
+        <v>0.4865672485049727</v>
       </c>
       <c r="H37">
         <v>0.9269637936145398</v>
       </c>
       <c r="I37">
-        <v>0.9396921785109477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -10402,16 +10402,16 @@
         </is>
       </c>
       <c r="F38">
-        <v>-0.5890345438568152</v>
+        <v>-0.5378299976098756</v>
       </c>
       <c r="G38">
-        <v>0.2148037741013604</v>
+        <v>0.1635992278544208</v>
       </c>
       <c r="H38">
         <v>-1.566005402601664</v>
       </c>
       <c r="I38">
-        <v>0.6211077907915399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="F39">
-        <v>-0.0681894971943916</v>
+        <v>-0.0120065584193656</v>
       </c>
       <c r="G39">
-        <v>0.8138024803355973</v>
+        <v>0.7576195415605713</v>
       </c>
       <c r="H39">
         <v>2.8436182610663</v>
       </c>
       <c r="I39">
-        <v>0.05086425947808548</v>
+        <v>0.06690667946426786</v>
       </c>
     </row>
     <row r="40">
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="F40">
-        <v>0.4285896590152785</v>
+        <v>0.4876001092056467</v>
       </c>
       <c r="G40">
-        <v>1.354969531501998</v>
+        <v>1.29595908131163</v>
       </c>
       <c r="H40">
         <v>6.476209418520899</v>
       </c>
       <c r="I40">
-        <v>1.410098371401602e-09</v>
+        <v>1.410832285426943e-09</v>
       </c>
     </row>
     <row r="41">
@@ -10507,16 +10507,16 @@
         </is>
       </c>
       <c r="F41">
-        <v>-0.7107414522617865</v>
+        <v>-0.6589094415294675</v>
       </c>
       <c r="G41">
-        <v>0.102947162856987</v>
+        <v>0.05111515212466788</v>
       </c>
       <c r="H41">
         <v>-2.512585467300304</v>
       </c>
       <c r="I41">
-        <v>0.1203229946786305</v>
+        <v>0.1797751055774313</v>
       </c>
     </row>
     <row r="42">
@@ -10542,16 +10542,16 @@
         </is>
       </c>
       <c r="F42">
-        <v>-0.1876945605177365</v>
+        <v>-0.1311646725694081</v>
       </c>
       <c r="G42">
-        <v>0.6997440240095973</v>
+        <v>0.6432141360612689</v>
       </c>
       <c r="H42">
         <v>1.940868340563796</v>
       </c>
       <c r="I42">
-        <v>0.3770503800394476</v>
+        <v>0.7841137351318078</v>
       </c>
     </row>
     <row r="43">
@@ -10577,16 +10577,16 @@
         </is>
       </c>
       <c r="F43">
-        <v>0.3096885718588255</v>
+        <v>0.3689690245906206</v>
       </c>
       <c r="G43">
-        <v>1.240307099009106</v>
+        <v>1.181026646277311</v>
       </c>
       <c r="H43">
         <v>5.602492173434166</v>
       </c>
       <c r="I43">
-        <v>3.158143923043255e-07</v>
+        <v>3.1693737002459e-07</v>
       </c>
     </row>
     <row r="44">
@@ -10612,16 +10612,16 @@
         </is>
       </c>
       <c r="F44">
-        <v>0.1340225026766486</v>
+        <v>0.1882821309965053</v>
       </c>
       <c r="G44">
-        <v>0.9858212502200119</v>
+        <v>0.9315616219001552</v>
       </c>
       <c r="H44">
         <v>4.422246044647099</v>
       </c>
       <c r="I44">
-        <v>0.0001421698775423419</v>
+        <v>0.0001465201937852161</v>
       </c>
     </row>
     <row r="45">
@@ -10647,16 +10647,16 @@
         </is>
       </c>
       <c r="F45">
-        <v>0.6292446510791875</v>
+        <v>0.6865301537848643</v>
       </c>
       <c r="G45">
-        <v>1.528545309193544</v>
+        <v>1.471259806487867</v>
       </c>
       <c r="H45">
         <v>8.070988427036657</v>
       </c>
       <c r="I45">
-        <v>8.615330671091215e-14</v>
+        <v>1.045969908009412e-14</v>
       </c>
     </row>
     <row r="46">
@@ -10682,16 +10682,16 @@
         </is>
       </c>
       <c r="F46">
-        <v>0.04048310342877542</v>
+        <v>0.1014427835027682</v>
       </c>
       <c r="G46">
-        <v>0.9974631039472954</v>
+        <v>0.9365034238733025</v>
       </c>
       <c r="H46">
         <v>3.648332838739257</v>
       </c>
       <c r="I46">
-        <v>0.003593403725332345</v>
+        <v>0.003959213280740464</v>
       </c>
     </row>
     <row r="47">
@@ -10717,16 +10717,16 @@
         </is>
       </c>
       <c r="F47">
-        <v>-0.5186817414351268</v>
+        <v>-0.4563364739315499</v>
       </c>
       <c r="G47">
-        <v>0.4600500047860022</v>
+        <v>0.3977047372824253</v>
       </c>
       <c r="H47">
         <v>-0.2015076556160771</v>
       </c>
       <c r="I47">
-        <v>0.9999545142387465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -10752,16 +10752,16 @@
         </is>
       </c>
       <c r="F48">
-        <v>-0.9522863652625216</v>
+        <v>-0.8914470766216074</v>
       </c>
       <c r="G48">
-        <v>0.002803661529920509</v>
+        <v>-0.05803562711099369</v>
       </c>
       <c r="H48">
         <v>-3.343991889396956</v>
       </c>
       <c r="I48">
-        <v>0.01069940840859829</v>
+        <v>0.01238732275525526</v>
       </c>
     </row>
     <row r="49">
@@ -10787,16 +10787,16 @@
         </is>
       </c>
       <c r="F49">
-        <v>-0.9943208621546884</v>
+        <v>-0.9336329002616767</v>
       </c>
       <c r="G49">
-        <v>-0.04160644939287117</v>
+        <v>-0.1022944112858829</v>
       </c>
       <c r="H49">
         <v>-3.65753941981561</v>
       </c>
       <c r="I49">
-        <v>0.003471103954490684</v>
+        <v>0.003819721580562096</v>
       </c>
     </row>
     <row r="50">
@@ -10822,16 +10822,16 @@
         </is>
       </c>
       <c r="F50">
-        <v>-0.84678848837984</v>
+        <v>-0.7849011744261258</v>
       </c>
       <c r="G50">
-        <v>0.1247540405118474</v>
+        <v>0.0628667265581333</v>
       </c>
       <c r="H50">
         <v>-2.499876588185363</v>
       </c>
       <c r="I50">
-        <v>0.1240150440362974</v>
+        <v>0.186354865766455</v>
       </c>
     </row>
     <row r="51">
@@ -10857,16 +10857,16 @@
         </is>
       </c>
       <c r="F51">
-        <v>-0.976674354078466</v>
+        <v>-0.9151446638522798</v>
       </c>
       <c r="G51">
-        <v>-0.01074600745511822</v>
+        <v>-0.07227569768130443</v>
       </c>
       <c r="H51">
         <v>-3.438583975737022</v>
       </c>
       <c r="I51">
-        <v>0.007708427274307872</v>
+        <v>0.008771477060373898</v>
       </c>
     </row>
     <row r="52">
@@ -10892,16 +10892,16 @@
         </is>
       </c>
       <c r="F52">
-        <v>-0.9181446780878267</v>
+        <v>-0.8579201993134504</v>
       </c>
       <c r="G52">
-        <v>0.02729371100435019</v>
+        <v>-0.03293076777002607</v>
       </c>
       <c r="H52">
         <v>-3.169525796870982</v>
       </c>
       <c r="I52">
-        <v>0.01906237759882301</v>
+        <v>0.02290318553952003</v>
       </c>
     </row>
     <row r="53">
@@ -10927,16 +10927,16 @@
         </is>
       </c>
       <c r="F53">
-        <v>-0.9601528938116869</v>
+        <v>-0.9000830900090235</v>
       </c>
       <c r="G53">
-        <v>-0.01714268108674799</v>
+        <v>-0.07721248488941129</v>
       </c>
       <c r="H53">
         <v>-3.486037093220379</v>
       </c>
       <c r="I53">
-        <v>0.00651419846946788</v>
+        <v>0.007353495350206088</v>
       </c>
     </row>
     <row r="54">
@@ -10962,16 +10962,16 @@
         </is>
       </c>
       <c r="F54">
-        <v>-0.812727429874055</v>
+        <v>-0.7514446536853534</v>
       </c>
       <c r="G54">
-        <v>0.149324718655187</v>
+        <v>0.0880419424664855</v>
       </c>
       <c r="H54">
         <v>-2.319535886028795</v>
       </c>
       <c r="I54">
-        <v>0.186053554018258</v>
+        <v>0.3054899648997411</v>
       </c>
     </row>
     <row r="55">
@@ -10997,16 +10997,16 @@
         </is>
       </c>
       <c r="F55">
-        <v>-0.9426039450827325</v>
+        <v>-0.8816799838750343</v>
       </c>
       <c r="G55">
-        <v>0.01381532019827281</v>
+        <v>-0.04710864100942536</v>
       </c>
       <c r="H55">
         <v>-3.266563010766235</v>
       </c>
       <c r="I55">
-        <v>0.0138861072997587</v>
+        <v>0.01632923675688007</v>
       </c>
     </row>
     <row r="56">
@@ -11032,16 +11032,16 @@
         </is>
       </c>
       <c r="F56">
-        <v>-0.4986204711063021</v>
+        <v>-0.4406026931722152</v>
       </c>
       <c r="G56">
-        <v>0.4121758632913438</v>
+        <v>0.3541580853572569</v>
       </c>
       <c r="H56">
         <v>-0.3192560249567564</v>
       </c>
       <c r="I56">
-        <v>0.9995610736106977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -11067,16 +11067,16 @@
         </is>
       </c>
       <c r="F57">
-        <v>-0.3525463061431585</v>
+        <v>-0.293143400181067</v>
       </c>
       <c r="G57">
-        <v>0.5799945620077671</v>
+        <v>0.5205916560456757</v>
       </c>
       <c r="H57">
         <v>0.8204218248923922</v>
       </c>
       <c r="I57">
-        <v>0.9638774298734651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -11102,16 +11102,16 @@
         </is>
       </c>
       <c r="F58">
-        <v>-0.4816139821545025</v>
+        <v>-0.4226729373785055</v>
       </c>
       <c r="G58">
-        <v>0.4436763243535194</v>
+        <v>0.3847352795775224</v>
       </c>
       <c r="H58">
         <v>-0.1379161007888986</v>
       </c>
       <c r="I58">
-        <v>0.9999930866335903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -11137,16 +11137,16 @@
         </is>
       </c>
       <c r="F59">
-        <v>-0.3083310253651175</v>
+        <v>-0.249054624768483</v>
       </c>
       <c r="G59">
-        <v>0.6222238890446844</v>
+        <v>0.56294748844805</v>
       </c>
       <c r="H59">
         <v>1.134649961813123</v>
       </c>
       <c r="I59">
-        <v>0.8670347531414112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -11172,16 +11172,16 @@
         </is>
       </c>
       <c r="F60">
-        <v>-0.4369516607134723</v>
+        <v>-0.3781940743338862</v>
       </c>
       <c r="G60">
-        <v>0.4854586107274475</v>
+        <v>0.4267010243478614</v>
       </c>
       <c r="H60">
         <v>0.1768896023227735</v>
       </c>
       <c r="I60">
-        <v>0.9999761674120458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -11207,16 +11207,16 @@
         </is>
       </c>
       <c r="F61">
-        <v>-0.6046569095887154</v>
+        <v>-0.5445286487037042</v>
       </c>
       <c r="G61">
-        <v>0.3392709959231237</v>
+        <v>0.2791427350381124</v>
       </c>
       <c r="H61">
         <v>-0.9457176833038048</v>
       </c>
       <c r="I61">
-        <v>0.9345501743704679</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
